--- a/datalist/datalist.xlsx
+++ b/datalist/datalist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/datalist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB4DEEF-2DA5-E44C-B948-A1CDC5F6861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A820E9E-7694-8249-95D3-ECF6EC84B2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="3300" windowWidth="28880" windowHeight="23780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9520" yWindow="500" windowWidth="28880" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,478 +86,481 @@
     <t>[-2.699356683826178]</t>
   </si>
   <si>
+    <t>[-2.139409515555565]</t>
+  </si>
+  <si>
+    <t>[-2.117928070821831]</t>
+  </si>
+  <si>
+    <t>[-1.483556459903236]</t>
+  </si>
+  <si>
+    <t>[-2.343573105929954]</t>
+  </si>
+  <si>
+    <t>[-2.983116456256564]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>[0.2854408837365778]</t>
+  </si>
+  <si>
+    <t>[-1.453139524998222]</t>
+  </si>
+  <si>
+    <t>[-0.953759038906729]</t>
+  </si>
+  <si>
+    <t>[-1.133606225555432]</t>
+  </si>
+  <si>
+    <t>[-2.372150783101412]</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCC2(=O)</t>
+  </si>
+  <si>
+    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.313504990947258]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[-1.291913897566761]</t>
+  </si>
+  <si>
+    <t>[-1.372135690306493]</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCCC2(=O)</t>
+  </si>
+  <si>
+    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-1.328058043046766]</t>
+  </si>
+  <si>
+    <t>[-1.332281203281558]</t>
+  </si>
+  <si>
+    <t>[-2.048310881496945]</t>
+  </si>
+  <si>
+    <t>[0.06010242776996512]</t>
+  </si>
+  <si>
+    <t>c1c2ccccc2ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.292437828399083]</t>
+  </si>
+  <si>
+    <t>[-2.26778354843842]</t>
+  </si>
+  <si>
+    <t>[-2.253720689754106]</t>
+  </si>
+  <si>
+    <t>[-1.389261896902378]</t>
+  </si>
+  <si>
+    <t>[-2.666360456535585]</t>
+  </si>
+  <si>
+    <t>c1ncccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-1.292066926579677]</t>
+  </si>
+  <si>
+    <t>[-1.594774490144373]</t>
+  </si>
+  <si>
+    <t>[-1.323441774450624]</t>
+  </si>
+  <si>
+    <t>[0.5169763155283397]</t>
+  </si>
+  <si>
+    <t>[-2.854003527861048]</t>
+  </si>
+  <si>
+    <t>s1cccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.044102454064185]</t>
+  </si>
+  <si>
+    <t>[-1.525233356759745]</t>
+  </si>
+  <si>
+    <t>[-1.91487765870208]</t>
+  </si>
+  <si>
+    <t>[-1.223696609179648]</t>
+  </si>
+  <si>
+    <t>[-2.856142132140456]</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.246028558976377]</t>
+  </si>
+  <si>
+    <t>[-2.172565327387805]</t>
+  </si>
+  <si>
+    <t>[-1.60111482419779]</t>
+  </si>
+  <si>
+    <t>[-1.99389456356965]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C#CC(=O)C</t>
+  </si>
+  <si>
+    <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[0.8580310015114319]</t>
+  </si>
+  <si>
+    <t>[0.2104086459133793]</t>
+  </si>
+  <si>
+    <t>[0.1450529034714121]</t>
+  </si>
+  <si>
+    <t>[-0.3439912819448033]</t>
+  </si>
+  <si>
+    <t>ClCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[2.26208706908768]</t>
+  </si>
+  <si>
+    <t>[1.920691153523556]</t>
+  </si>
+  <si>
+    <t>[2.074642235236187]</t>
+  </si>
+  <si>
+    <t>[0.944704294718254]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCCl</t>
+  </si>
+  <si>
+    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-1.888460135226811]</t>
+  </si>
+  <si>
+    <t>[-2.065179567503288]</t>
+  </si>
+  <si>
+    <t>[-1.700032143571208]</t>
+  </si>
+  <si>
+    <t>[-2.341145278026894]</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C(=O)C</t>
+  </si>
+  <si>
+    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-1.278251167901181]</t>
+  </si>
+  <si>
+    <t>[-0.2626596419205717]</t>
+  </si>
+  <si>
+    <t>[-1.504845945705453]</t>
+  </si>
+  <si>
+    <t>[-2.03375575548214]</t>
+  </si>
+  <si>
+    <t>[-0.1911630635601806]</t>
+  </si>
+  <si>
+    <t>[-0.8825311641365223]</t>
+  </si>
+  <si>
+    <t>COc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.047561172260572]</t>
+  </si>
+  <si>
+    <t>[-1.903622463840115]</t>
+  </si>
+  <si>
+    <t>[-2.177408949769586]</t>
+  </si>
+  <si>
+    <t>[-1.517886953030047]</t>
+  </si>
+  <si>
+    <t>[-1.795816819774872]</t>
+  </si>
+  <si>
+    <t>COc(c1)cccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.464891741858764]</t>
+  </si>
+  <si>
+    <t>[-1.808040943597905]</t>
+  </si>
+  <si>
+    <t>[-2.168614073855972]</t>
+  </si>
+  <si>
+    <t>[-1.795100749307371]</t>
+  </si>
+  <si>
+    <t>[-2.912283367999163]</t>
+  </si>
+  <si>
+    <t>COc(cc1)ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-1.315802917695658]</t>
+  </si>
+  <si>
+    <t>[-2.27154494039117]</t>
+  </si>
+  <si>
+    <t>[-1.554948472796527]</t>
+  </si>
+  <si>
+    <t>[-2.457091992572042]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
+  </si>
+  <si>
+    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-1.979514389308824]</t>
+  </si>
+  <si>
+    <t>[-2.269203661219362]</t>
+  </si>
+  <si>
+    <t>[-1.751768950621963]</t>
+  </si>
+  <si>
+    <t>[-0.8209866515645987]</t>
+  </si>
+  <si>
+    <t>COCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[2.136112889008813]</t>
+  </si>
+  <si>
+    <t>[1.990303135492853]</t>
+  </si>
+  <si>
+    <t>[2.194436790415197]</t>
+  </si>
+  <si>
+    <t>[2.857337750627712]</t>
+  </si>
+  <si>
+    <t>[2.972315947671187]</t>
+  </si>
+  <si>
+    <t>[2.345409537071192]</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(Br)cccc1)C</t>
+  </si>
+  <si>
+    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.331161440365284]</t>
+  </si>
+  <si>
+    <t>[-2.300400121400307]</t>
+  </si>
+  <si>
+    <t>[-2.503192786649451]</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(Br)ccc1)C</t>
+  </si>
+  <si>
+    <t>JYAQYXOVOHJRCS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.115321367280909]</t>
+  </si>
+  <si>
+    <t>[-2.740521202198647]</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C)cc1)C</t>
+  </si>
+  <si>
+    <t>GNKZMNRKLCTJAY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.026808863082255]</t>
+  </si>
+  <si>
+    <t>[-2.55695794714874]</t>
+  </si>
+  <si>
+    <t>[-2.783714510933148]</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(F)cc1)C</t>
+  </si>
+  <si>
+    <t>ZDPAWHACYDRYIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.106816252331984]</t>
+  </si>
+  <si>
+    <t>[-2.506528426687459]</t>
+  </si>
+  <si>
+    <t>[-2.078744879305718]</t>
+  </si>
+  <si>
+    <t>[-2.726283886671787]</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(Br)cc1)C</t>
+  </si>
+  <si>
+    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-1.6948614411343]</t>
+  </si>
+  <si>
+    <t>[-2.561996218694499]</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=NC=CC=C1)C</t>
+  </si>
+  <si>
+    <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-0.5700511506516782]</t>
+  </si>
+  <si>
+    <t>[-2.41708675608868]</t>
+  </si>
+  <si>
+    <t>[-2.658005899042332]</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=NC=C1)C</t>
+  </si>
+  <si>
+    <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-0.9118210553813246]</t>
+  </si>
+  <si>
+    <t>[-1.540457583313538]</t>
+  </si>
+  <si>
+    <t>[-2.672443261351688]</t>
+  </si>
+  <si>
+    <t>C(=O)(/C=C/c1ccccc1)C</t>
+  </si>
+  <si>
+    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
+  </si>
+  <si>
+    <t>[-1.112422729872088]</t>
+  </si>
+  <si>
+    <t>[-1.660363578072807]</t>
+  </si>
+  <si>
+    <t>[-2.436159250099045]</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
+  </si>
+  <si>
+    <t>DQFBYFPFKXHELB-VAWYXSNFSA-N</t>
+  </si>
+  <si>
+    <t>[0.4261585796060459]</t>
+  </si>
+  <si>
+    <t>[-0.5363260903453796]</t>
+  </si>
+  <si>
+    <t>[-0.7803823131899257]</t>
+  </si>
+  <si>
+    <t>[-1.456032315139359]</t>
+  </si>
+  <si>
     <t>c1ccccc1C(=O)CC</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.139409515555565]</t>
-  </si>
-  <si>
-    <t>[-2.117928070821831]</t>
-  </si>
-  <si>
-    <t>[-1.483556459903236]</t>
-  </si>
-  <si>
-    <t>[-2.343573105929954]</t>
-  </si>
-  <si>
-    <t>[-2.983116456256564]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)C(C)C</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[0.2854408837365778]</t>
-  </si>
-  <si>
-    <t>[-1.453139524998222]</t>
-  </si>
-  <si>
-    <t>[-0.953759038906729]</t>
-  </si>
-  <si>
-    <t>[-1.133606225555432]</t>
-  </si>
-  <si>
-    <t>[-2.372150783101412]</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCC2(=O)</t>
-  </si>
-  <si>
-    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.313504990947258]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[-1.291913897566761]</t>
-  </si>
-  <si>
-    <t>[-1.372135690306493]</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCCC2(=O)</t>
-  </si>
-  <si>
-    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.328058043046766]</t>
-  </si>
-  <si>
-    <t>[-1.332281203281558]</t>
-  </si>
-  <si>
-    <t>[-2.048310881496945]</t>
-  </si>
-  <si>
-    <t>[0.06010242776996512]</t>
-  </si>
-  <si>
-    <t>c1c2ccccc2ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.292437828399083]</t>
-  </si>
-  <si>
-    <t>[-2.26778354843842]</t>
-  </si>
-  <si>
-    <t>[-2.253720689754106]</t>
-  </si>
-  <si>
-    <t>[-1.389261896902378]</t>
-  </si>
-  <si>
-    <t>[-2.666360456535585]</t>
-  </si>
-  <si>
-    <t>c1ncccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.292066926579677]</t>
-  </si>
-  <si>
-    <t>[-1.594774490144373]</t>
-  </si>
-  <si>
-    <t>[-1.323441774450624]</t>
-  </si>
-  <si>
-    <t>[0.5169763155283397]</t>
-  </si>
-  <si>
-    <t>[-2.854003527861048]</t>
-  </si>
-  <si>
-    <t>s1cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.044102454064185]</t>
-  </si>
-  <si>
-    <t>[-1.525233356759745]</t>
-  </si>
-  <si>
-    <t>[-1.91487765870208]</t>
-  </si>
-  <si>
-    <t>[-1.223696609179648]</t>
-  </si>
-  <si>
-    <t>[-2.856142132140456]</t>
-  </si>
-  <si>
-    <t>CC(C)(C)C(=O)C</t>
-  </si>
-  <si>
-    <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.246028558976377]</t>
-  </si>
-  <si>
-    <t>[-2.172565327387805]</t>
-  </si>
-  <si>
-    <t>[-1.60111482419779]</t>
-  </si>
-  <si>
-    <t>[-1.99389456356965]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C#CC(=O)C</t>
-  </si>
-  <si>
-    <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[0.8580310015114319]</t>
-  </si>
-  <si>
-    <t>[0.2104086459133793]</t>
-  </si>
-  <si>
-    <t>[0.1450529034714121]</t>
-  </si>
-  <si>
-    <t>[-0.3439912819448033]</t>
-  </si>
-  <si>
-    <t>ClCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[2.26208706908768]</t>
-  </si>
-  <si>
-    <t>[1.920691153523556]</t>
-  </si>
-  <si>
-    <t>[2.074642235236187]</t>
-  </si>
-  <si>
-    <t>[0.944704294718254]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCCl</t>
-  </si>
-  <si>
-    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.888460135226811]</t>
-  </si>
-  <si>
-    <t>[-2.065179567503288]</t>
-  </si>
-  <si>
-    <t>[-1.700032143571208]</t>
-  </si>
-  <si>
-    <t>[-2.341145278026894]</t>
-  </si>
-  <si>
-    <t>C1CCCCC1C(=O)C</t>
-  </si>
-  <si>
-    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.278251167901181]</t>
-  </si>
-  <si>
-    <t>[-0.2626596419205717]</t>
-  </si>
-  <si>
-    <t>[-1.504845945705453]</t>
-  </si>
-  <si>
-    <t>[-2.03375575548214]</t>
-  </si>
-  <si>
-    <t>[-0.1911630635601806]</t>
-  </si>
-  <si>
-    <t>[-0.8825311641365223]</t>
-  </si>
-  <si>
-    <t>COc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.047561172260572]</t>
-  </si>
-  <si>
-    <t>[-1.903622463840115]</t>
-  </si>
-  <si>
-    <t>[-2.177408949769586]</t>
-  </si>
-  <si>
-    <t>[-1.517886953030047]</t>
-  </si>
-  <si>
-    <t>[-1.795816819774872]</t>
-  </si>
-  <si>
-    <t>COc(c1)cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.464891741858764]</t>
-  </si>
-  <si>
-    <t>[-1.808040943597905]</t>
-  </si>
-  <si>
-    <t>[-2.168614073855972]</t>
-  </si>
-  <si>
-    <t>[-1.795100749307371]</t>
-  </si>
-  <si>
-    <t>[-2.912283367999163]</t>
-  </si>
-  <si>
-    <t>COc(cc1)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.315802917695658]</t>
-  </si>
-  <si>
-    <t>[-2.27154494039117]</t>
-  </si>
-  <si>
-    <t>[-1.554948472796527]</t>
-  </si>
-  <si>
-    <t>[-2.457091992572042]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
-  </si>
-  <si>
-    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.979514389308824]</t>
-  </si>
-  <si>
-    <t>[-2.269203661219362]</t>
-  </si>
-  <si>
-    <t>[-1.751768950621963]</t>
-  </si>
-  <si>
-    <t>[-0.8209866515645987]</t>
-  </si>
-  <si>
-    <t>COCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[2.136112889008813]</t>
-  </si>
-  <si>
-    <t>[1.990303135492853]</t>
-  </si>
-  <si>
-    <t>[2.194436790415197]</t>
-  </si>
-  <si>
-    <t>[2.857337750627712]</t>
-  </si>
-  <si>
-    <t>[2.972315947671187]</t>
-  </si>
-  <si>
-    <t>[2.345409537071192]</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(Br)cccc1)C</t>
-  </si>
-  <si>
-    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.331161440365284]</t>
-  </si>
-  <si>
-    <t>[-2.300400121400307]</t>
-  </si>
-  <si>
-    <t>[-2.503192786649451]</t>
-  </si>
-  <si>
-    <t>C(=O)(c1cc(Br)ccc1)C</t>
-  </si>
-  <si>
-    <t>JYAQYXOVOHJRCS-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.115321367280909]</t>
-  </si>
-  <si>
-    <t>[-2.740521202198647]</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(C)cc1)C</t>
-  </si>
-  <si>
-    <t>GNKZMNRKLCTJAY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.026808863082255]</t>
-  </si>
-  <si>
-    <t>[-2.55695794714874]</t>
-  </si>
-  <si>
-    <t>[-2.783714510933148]</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(F)cc1)C</t>
-  </si>
-  <si>
-    <t>ZDPAWHACYDRYIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.106816252331984]</t>
-  </si>
-  <si>
-    <t>[-2.506528426687459]</t>
-  </si>
-  <si>
-    <t>[-2.078744879305718]</t>
-  </si>
-  <si>
-    <t>[-2.726283886671787]</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(Br)cc1)C</t>
-  </si>
-  <si>
-    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.6948614411343]</t>
-  </si>
-  <si>
-    <t>[-2.561996218694499]</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CC=C1)C</t>
-  </si>
-  <si>
-    <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-0.5700511506516782]</t>
-  </si>
-  <si>
-    <t>[-2.41708675608868]</t>
-  </si>
-  <si>
-    <t>[-2.658005899042332]</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=NC=C1)C</t>
-  </si>
-  <si>
-    <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-0.9118210553813246]</t>
-  </si>
-  <si>
-    <t>[-1.540457583313538]</t>
-  </si>
-  <si>
-    <t>[-2.672443261351688]</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/c1ccccc1)C</t>
-  </si>
-  <si>
-    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
-  </si>
-  <si>
-    <t>[-1.112422729872088]</t>
-  </si>
-  <si>
-    <t>[-1.660363578072807]</t>
-  </si>
-  <si>
-    <t>[-2.436159250099045]</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
-  </si>
-  <si>
-    <t>DQFBYFPFKXHELB-VAWYXSNFSA-N</t>
-  </si>
-  <si>
-    <t>[0.4261585796060459]</t>
-  </si>
-  <si>
-    <t>[-0.5363260903453796]</t>
-  </si>
-  <si>
-    <t>[-0.7803823131899257]</t>
-  </si>
-  <si>
-    <t>[-1.456032315139359]</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2122,8 +2125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="A3:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2190,685 +2193,686 @@
     </row>
     <row r="3" spans="1:10" ht="100" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="100" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="100" customHeight="1">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="100" customHeight="1">
       <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="100" customHeight="1">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="100" customHeight="1">
       <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="100" customHeight="1">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
         <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="100" customHeight="1">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="100" customHeight="1">
       <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
         <v>70</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s">
-        <v>75</v>
-      </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="100" customHeight="1">
       <c r="A12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>78</v>
       </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="100" customHeight="1">
       <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
         <v>83</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>84</v>
       </c>
-      <c r="E13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="100" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="100" customHeight="1">
       <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
         <v>96</v>
       </c>
-      <c r="C15" t="s">
+      <c r="G15" t="s">
         <v>97</v>
       </c>
-      <c r="D15" t="s">
+      <c r="H15" t="s">
         <v>98</v>
       </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="100" customHeight="1">
       <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
         <v>103</v>
-      </c>
-      <c r="C16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" t="s">
-        <v>106</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="100" customHeight="1">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="100" customHeight="1">
       <c r="A18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" t="s">
         <v>116</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
         <v>117</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H18" t="s">
         <v>118</v>
       </c>
-      <c r="E18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" t="s">
-        <v>121</v>
-      </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="100" customHeight="1">
       <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
         <v>122</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>123</v>
       </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>124</v>
       </c>
-      <c r="E19" t="s">
+      <c r="H19" t="s">
         <v>125</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="100" customHeight="1">
       <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
         <v>130</v>
       </c>
-      <c r="C20" t="s">
+      <c r="I20" t="s">
         <v>131</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="100" customHeight="1">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="100" customHeight="1">
       <c r="A22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="100" customHeight="1">
       <c r="A23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
         <v>144</v>
       </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
         <v>145</v>
       </c>
-      <c r="D23" t="s">
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
         <v>146</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="100" customHeight="1">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="100" customHeight="1">
       <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" t="s">
         <v>154</v>
       </c>
-      <c r="C25" t="s">
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
         <v>155</v>
-      </c>
-      <c r="D25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="100" customHeight="1">
       <c r="A26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="100" customHeight="1">
       <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
         <v>164</v>
       </c>
-      <c r="C27" t="s">
+      <c r="I27" t="s">
         <v>165</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="100" customHeight="1">
       <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
         <v>169</v>
       </c>
-      <c r="C28" t="s">
+      <c r="G28" t="s">
         <v>170</v>
       </c>
-      <c r="D28" t="s">
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
         <v>171</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/datalist/datalist.xlsx
+++ b/datalist/datalist.xlsx
@@ -1,34 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macmini_m1_2022/PycharmProjects/CoMFA_model/datalist/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A820E9E-7694-8249-95D3-ECF6EC84B2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9520" yWindow="500" windowWidth="28880" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -77,13 +58,19 @@
     <t>[-2.752430839032114]</t>
   </si>
   <si>
-    <t>[-2.325252591369411]</t>
-  </si>
-  <si>
-    <t>[-2.032777764780063]</t>
-  </si>
-  <si>
-    <t>[-2.699356683826178]</t>
+    <t>[-2.203753529153869]</t>
+  </si>
+  <si>
+    <t>[-2.069803475406801]</t>
+  </si>
+  <si>
+    <t>[-2.93307486456427]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>[-2.139409515555565]</t>
@@ -92,31 +79,34 @@
     <t>[-2.117928070821831]</t>
   </si>
   <si>
-    <t>[-1.483556459903236]</t>
-  </si>
-  <si>
-    <t>[-2.343573105929954]</t>
-  </si>
-  <si>
-    <t>[-2.983116456256564]</t>
+    <t>[-1.087556294409555]</t>
+  </si>
+  <si>
+    <t>[-1.757420782490755]</t>
+  </si>
+  <si>
+    <t>[-2.845547479783045]</t>
   </si>
   <si>
     <t>c1ccccc1C(=O)C(C)C</t>
   </si>
   <si>
+    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
     <t>[0.2854408837365778]</t>
   </si>
   <si>
     <t>[-1.453139524998222]</t>
   </si>
   <si>
-    <t>[-0.953759038906729]</t>
-  </si>
-  <si>
-    <t>[-1.133606225555432]</t>
-  </si>
-  <si>
-    <t>[-2.372150783101412]</t>
+    <t>[-0.9820711568947553]</t>
+  </si>
+  <si>
+    <t>[-1.113500279461304]</t>
+  </si>
+  <si>
+    <t>[-2.156933374924995]</t>
   </si>
   <si>
     <t>c12ccccc1CCC2(=O)</t>
@@ -131,10 +121,10 @@
     <t>[]</t>
   </si>
   <si>
-    <t>[-1.291913897566761]</t>
-  </si>
-  <si>
-    <t>[-1.372135690306493]</t>
+    <t>[-1.826058117213205]</t>
+  </si>
+  <si>
+    <t>[-1.211240366496093]</t>
   </si>
   <si>
     <t>c12ccccc1CCCC2(=O)</t>
@@ -149,10 +139,10 @@
     <t>[-1.332281203281558]</t>
   </si>
   <si>
-    <t>[-2.048310881496945]</t>
-  </si>
-  <si>
-    <t>[0.06010242776996512]</t>
+    <t>[-2.063706736758607]</t>
+  </si>
+  <si>
+    <t>[-0.8110723583141763]</t>
   </si>
   <si>
     <t>c1c2ccccc2ccc1C(=O)C</t>
@@ -167,13 +157,13 @@
     <t>[-2.26778354843842]</t>
   </si>
   <si>
-    <t>[-2.253720689754106]</t>
-  </si>
-  <si>
-    <t>[-1.389261896902378]</t>
-  </si>
-  <si>
-    <t>[-2.666360456535585]</t>
+    <t>[-2.366470818201833]</t>
+  </si>
+  <si>
+    <t>[-2.117430047399077]</t>
+  </si>
+  <si>
+    <t>[-2.597790728038712]</t>
   </si>
   <si>
     <t>c1ncccc1C(=O)C</t>
@@ -188,13 +178,13 @@
     <t>[-1.594774490144373]</t>
   </si>
   <si>
-    <t>[-1.323441774450624]</t>
-  </si>
-  <si>
-    <t>[0.5169763155283397]</t>
-  </si>
-  <si>
-    <t>[-2.854003527861048]</t>
+    <t>[-0.8349713233077891]</t>
+  </si>
+  <si>
+    <t>[-1.344920591149517]</t>
+  </si>
+  <si>
+    <t>[-1.3526883659778]</t>
   </si>
   <si>
     <t>s1cccc1C(=O)C</t>
@@ -209,13 +199,13 @@
     <t>[-1.525233356759745]</t>
   </si>
   <si>
-    <t>[-1.91487765870208]</t>
-  </si>
-  <si>
-    <t>[-1.223696609179648]</t>
-  </si>
-  <si>
-    <t>[-2.856142132140456]</t>
+    <t>[-2.170555806160282]</t>
+  </si>
+  <si>
+    <t>[-2.005153643496584]</t>
+  </si>
+  <si>
+    <t>[-2.778665650584761]</t>
   </si>
   <si>
     <t>CC(C)(C)C(=O)C</t>
@@ -230,10 +220,10 @@
     <t>[-2.172565327387805]</t>
   </si>
   <si>
-    <t>[-1.60111482419779]</t>
-  </si>
-  <si>
-    <t>[-1.99389456356965]</t>
+    <t>[-1.511323526216977]</t>
+  </si>
+  <si>
+    <t>[-2.047247935553075]</t>
   </si>
   <si>
     <t>c1ccccc1C#CC(=O)C</t>
@@ -248,10 +238,10 @@
     <t>[0.2104086459133793]</t>
   </si>
   <si>
-    <t>[0.1450529034714121]</t>
-  </si>
-  <si>
-    <t>[-0.3439912819448033]</t>
+    <t>[0.1557554543226105]</t>
+  </si>
+  <si>
+    <t>[0.02122749835505171]</t>
   </si>
   <si>
     <t>ClCC(=O)c1ccccc1</t>
@@ -266,10 +256,10 @@
     <t>[1.920691153523556]</t>
   </si>
   <si>
-    <t>[2.074642235236187]</t>
-  </si>
-  <si>
-    <t>[0.944704294718254]</t>
+    <t>[1.779962024609094]</t>
+  </si>
+  <si>
+    <t>[1.334661013914161]</t>
   </si>
   <si>
     <t>c1ccccc1C(=O)CCCl</t>
@@ -284,10 +274,10 @@
     <t>[-2.065179567503288]</t>
   </si>
   <si>
-    <t>[-1.700032143571208]</t>
-  </si>
-  <si>
-    <t>[-2.341145278026894]</t>
+    <t>[-1.631076867119981]</t>
+  </si>
+  <si>
+    <t>[-2.019324599434428]</t>
   </si>
   <si>
     <t>C1CCCCC1C(=O)C</t>
@@ -305,13 +295,13 @@
     <t>[-1.504845945705453]</t>
   </si>
   <si>
-    <t>[-2.03375575548214]</t>
-  </si>
-  <si>
-    <t>[-0.1911630635601806]</t>
-  </si>
-  <si>
-    <t>[-0.8825311641365223]</t>
+    <t>[-2.011273692868659]</t>
+  </si>
+  <si>
+    <t>[-1.162968706017828]</t>
+  </si>
+  <si>
+    <t>[-0.905921336588232]</t>
   </si>
   <si>
     <t>COc1ccccc1C(=O)C</t>
@@ -326,13 +316,13 @@
     <t>[-1.903622463840115]</t>
   </si>
   <si>
-    <t>[-2.177408949769586]</t>
-  </si>
-  <si>
-    <t>[-1.517886953030047]</t>
-  </si>
-  <si>
-    <t>[-1.795816819774872]</t>
+    <t>[-2.514553452236547]</t>
+  </si>
+  <si>
+    <t>[-2.045838289664093]</t>
+  </si>
+  <si>
+    <t>[-1.627543282430237]</t>
   </si>
   <si>
     <t>COc(c1)cccc1C(=O)C</t>
@@ -347,13 +337,13 @@
     <t>[-1.808040943597905]</t>
   </si>
   <si>
-    <t>[-2.168614073855972]</t>
-  </si>
-  <si>
-    <t>[-1.795100749307371]</t>
-  </si>
-  <si>
-    <t>[-2.912283367999163]</t>
+    <t>[-2.219277318527948]</t>
+  </si>
+  <si>
+    <t>[-2.144244780398572]</t>
+  </si>
+  <si>
+    <t>[-3.013191397561541]</t>
   </si>
   <si>
     <t>COc(cc1)ccc1C(=O)C</t>
@@ -365,13 +355,13 @@
     <t>[-1.315802917695658]</t>
   </si>
   <si>
-    <t>[-2.27154494039117]</t>
-  </si>
-  <si>
-    <t>[-1.554948472796527]</t>
-  </si>
-  <si>
-    <t>[-2.457091992572042]</t>
+    <t>[-2.243669375247761]</t>
+  </si>
+  <si>
+    <t>[-2.19619597571919]</t>
+  </si>
+  <si>
+    <t>[-2.674518657187278]</t>
   </si>
   <si>
     <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
@@ -386,10 +376,10 @@
     <t>[-2.269203661219362]</t>
   </si>
   <si>
-    <t>[-1.751768950621963]</t>
-  </si>
-  <si>
-    <t>[-0.8209866515645987]</t>
+    <t>[-1.397285052228052]</t>
+  </si>
+  <si>
+    <t>[-0.788807058770026]</t>
   </si>
   <si>
     <t>COCC(=O)c1ccccc1</t>
@@ -407,13 +397,13 @@
     <t>[2.194436790415197]</t>
   </si>
   <si>
-    <t>[2.857337750627712]</t>
-  </si>
-  <si>
-    <t>[2.972315947671187]</t>
-  </si>
-  <si>
-    <t>[2.345409537071192]</t>
+    <t>[3.00129500675854]</t>
+  </si>
+  <si>
+    <t>[1.32479042366835]</t>
+  </si>
+  <si>
+    <t>[2.111283418840173]</t>
   </si>
   <si>
     <t>C(=O)(c1c(Br)cccc1)C</t>
@@ -425,10 +415,10 @@
     <t>[-2.331161440365284]</t>
   </si>
   <si>
-    <t>[-2.300400121400307]</t>
-  </si>
-  <si>
-    <t>[-2.503192786649451]</t>
+    <t>[-1.880737957418336]</t>
+  </si>
+  <si>
+    <t>[-2.693919266213809]</t>
   </si>
   <si>
     <t>C(=O)(c1cc(Br)ccc1)C</t>
@@ -437,10 +427,10 @@
     <t>JYAQYXOVOHJRCS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[-2.115321367280909]</t>
-  </si>
-  <si>
-    <t>[-2.740521202198647]</t>
+    <t>[-2.113674784992912]</t>
+  </si>
+  <si>
+    <t>[-2.809402547927118]</t>
   </si>
   <si>
     <t>C(=O)(c1ccc(C)cc1)C</t>
@@ -452,10 +442,10 @@
     <t>[-2.026808863082255]</t>
   </si>
   <si>
-    <t>[-2.55695794714874]</t>
-  </si>
-  <si>
-    <t>[-2.783714510933148]</t>
+    <t>[-2.33554862969443]</t>
+  </si>
+  <si>
+    <t>[-2.826413302134644]</t>
   </si>
   <si>
     <t>C(=O)(c1ccc(F)cc1)C</t>
@@ -470,10 +460,10 @@
     <t>[-2.506528426687459]</t>
   </si>
   <si>
-    <t>[-2.078744879305718]</t>
-  </si>
-  <si>
-    <t>[-2.726283886671787]</t>
+    <t>[-2.09234534182431]</t>
+  </si>
+  <si>
+    <t>[-2.661460582683795]</t>
   </si>
   <si>
     <t>C(=O)(c1ccc(Br)cc1)C</t>
@@ -482,10 +472,10 @@
     <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[-1.6948614411343]</t>
-  </si>
-  <si>
-    <t>[-2.561996218694499]</t>
+    <t>[-1.967436327412258]</t>
+  </si>
+  <si>
+    <t>[-2.621904383349337]</t>
   </si>
   <si>
     <t>C(=O)(C1=NC=CC=C1)C</t>
@@ -497,10 +487,10 @@
     <t>[-0.5700511506516782]</t>
   </si>
   <si>
-    <t>[-2.41708675608868]</t>
-  </si>
-  <si>
-    <t>[-2.658005899042332]</t>
+    <t>[-2.173962513486877]</t>
+  </si>
+  <si>
+    <t>[-2.930710585731779]</t>
   </si>
   <si>
     <t>C(=O)(C1=CC=NC=C1)C</t>
@@ -512,10 +502,10 @@
     <t>[-0.9118210553813246]</t>
   </si>
   <si>
-    <t>[-1.540457583313538]</t>
-  </si>
-  <si>
-    <t>[-2.672443261351688]</t>
+    <t>[-1.32194749734552]</t>
+  </si>
+  <si>
+    <t>[-2.221785753836356]</t>
   </si>
   <si>
     <t>C(=O)(/C=C/c1ccccc1)C</t>
@@ -527,10 +517,10 @@
     <t>[-1.112422729872088]</t>
   </si>
   <si>
-    <t>[-1.660363578072807]</t>
-  </si>
-  <si>
-    <t>[-2.436159250099045]</t>
+    <t>[-0.4964445784038843]</t>
+  </si>
+  <si>
+    <t>[-2.18618433457459]</t>
   </si>
   <si>
     <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
@@ -545,68 +535,31 @@
     <t>[-0.5363260903453796]</t>
   </si>
   <si>
-    <t>[-0.7803823131899257]</t>
-  </si>
-  <si>
-    <t>[-1.456032315139359]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
-    <phoneticPr fontId="1"/>
+    <t>[-1.157138547361852]</t>
+  </si>
+  <si>
+    <t>[-1.607082824398217]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -621,25 +574,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -660,13 +602,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -704,13 +640,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -748,13 +678,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -792,13 +716,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -836,13 +754,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -880,13 +792,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -924,13 +830,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -968,13 +868,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1012,13 +906,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1056,13 +944,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1100,13 +982,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1144,13 +1020,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1188,13 +1058,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1232,13 +1096,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1276,13 +1134,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1320,13 +1172,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1364,13 +1210,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1408,13 +1248,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1452,13 +1286,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1496,13 +1324,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1540,13 +1362,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1584,13 +1400,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1628,13 +1438,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1672,13 +1476,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1716,13 +1514,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1760,13 +1552,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1804,13 +1590,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27" descr="f">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="f"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1837,9 +1617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1877,7 +1657,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1911,7 +1691,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1946,10 +1725,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2122,21 +1900,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2165,714 +1939,710 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="100" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="100" customHeight="1">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="100" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:9" ht="100" customHeight="1">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="100" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="100" customHeight="1">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="100" customHeight="1">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="100" customHeight="1">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="100" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="100" customHeight="1">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="100" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="100" customHeight="1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="100" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="100" customHeight="1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="100" customHeight="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="100" customHeight="1">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="100" customHeight="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="100" customHeight="1">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="100" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="100" customHeight="1">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="100" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="100" customHeight="1">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="100" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="100" customHeight="1">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="100" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="100" customHeight="1">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="100" customHeight="1">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="100" customHeight="1">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>82</v>
-      </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="100" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="100" customHeight="1">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="100" customHeight="1">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I17" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="100" customHeight="1">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="100" customHeight="1">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="100" customHeight="1">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="100" customHeight="1">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
         <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="100" customHeight="1">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="100" customHeight="1">
       <c r="A23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="100" customHeight="1">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="100" customHeight="1">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="100" customHeight="1">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
         <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="100" customHeight="1">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E27" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I27" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="100" customHeight="1">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/datalist/datalist.xlsx
+++ b/datalist/datalist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
   <si>
     <t>smiles</t>
   </si>
@@ -34,15 +34,6 @@
     <t>ΔΔG.expt.Ru</t>
   </si>
   <si>
-    <t>ΔΔG.pre.cbs</t>
-  </si>
-  <si>
-    <t>ΔΔG.pre.dip</t>
-  </si>
-  <si>
-    <t>ΔΔG.pre.RuSS</t>
-  </si>
-  <si>
     <t>c1ccccc1C(=O)C</t>
   </si>
   <si>
@@ -55,138 +46,84 @@
     <t>[-2.136803750966791]</t>
   </si>
   <si>
+    <t>[-3.170636656961734]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.139409515555565]</t>
+  </si>
+  <si>
+    <t>[-2.117928070821831]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCCCCCCCC</t>
+  </si>
+  <si>
+    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.464891741858764]</t>
+  </si>
+  <si>
+    <t>[-1.808040943597905]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[0.2854408837365778]</t>
+  </si>
+  <si>
+    <t>[-1.453139524998222]</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCC2(=O)</t>
+  </si>
+  <si>
+    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.313504990947258]</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCCC2(=O)</t>
+  </si>
+  <si>
+    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-1.328058043046766]</t>
+  </si>
+  <si>
+    <t>[-1.332281203281558]</t>
+  </si>
+  <si>
+    <t>c1c2ccccc2ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.292437828399083]</t>
+  </si>
+  <si>
+    <t>[-2.293347004688449]</t>
+  </si>
+  <si>
     <t>[-2.752430839032114]</t>
   </si>
   <si>
-    <t>[-2.203753529153869]</t>
-  </si>
-  <si>
-    <t>[-2.069803475406801]</t>
-  </si>
-  <si>
-    <t>[-2.93307486456427]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.139409515555565]</t>
-  </si>
-  <si>
-    <t>[-2.117928070821831]</t>
-  </si>
-  <si>
-    <t>[-1.087556294409555]</t>
-  </si>
-  <si>
-    <t>[-1.757420782490755]</t>
-  </si>
-  <si>
-    <t>[-2.845547479783045]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)C(C)C</t>
-  </si>
-  <si>
-    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[0.2854408837365778]</t>
-  </si>
-  <si>
-    <t>[-1.453139524998222]</t>
-  </si>
-  <si>
-    <t>[-0.9820711568947553]</t>
-  </si>
-  <si>
-    <t>[-1.113500279461304]</t>
-  </si>
-  <si>
-    <t>[-2.156933374924995]</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCC2(=O)</t>
-  </si>
-  <si>
-    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.313504990947258]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[-1.826058117213205]</t>
-  </si>
-  <si>
-    <t>[-1.211240366496093]</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCCC2(=O)</t>
-  </si>
-  <si>
-    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.328058043046766]</t>
-  </si>
-  <si>
-    <t>[-1.332281203281558]</t>
-  </si>
-  <si>
-    <t>[-2.063706736758607]</t>
-  </si>
-  <si>
-    <t>[-0.8110723583141763]</t>
-  </si>
-  <si>
-    <t>c1c2ccccc2ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.292437828399083]</t>
-  </si>
-  <si>
-    <t>[-2.26778354843842]</t>
-  </si>
-  <si>
-    <t>[-2.366470818201833]</t>
-  </si>
-  <si>
-    <t>[-2.117430047399077]</t>
-  </si>
-  <si>
-    <t>[-2.597790728038712]</t>
-  </si>
-  <si>
-    <t>c1ncccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WEGYGNROSJDEIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.292066926579677]</t>
-  </si>
-  <si>
-    <t>[-1.594774490144373]</t>
-  </si>
-  <si>
-    <t>[-0.8349713233077891]</t>
-  </si>
-  <si>
-    <t>[-1.344920591149517]</t>
-  </si>
-  <si>
-    <t>[-1.3526883659778]</t>
-  </si>
-  <si>
     <t>s1cccc1C(=O)C</t>
   </si>
   <si>
@@ -199,15 +136,6 @@
     <t>[-1.525233356759745]</t>
   </si>
   <si>
-    <t>[-2.170555806160282]</t>
-  </si>
-  <si>
-    <t>[-2.005153643496584]</t>
-  </si>
-  <si>
-    <t>[-2.778665650584761]</t>
-  </si>
-  <si>
     <t>CC(C)(C)C(=O)C</t>
   </si>
   <si>
@@ -220,12 +148,6 @@
     <t>[-2.172565327387805]</t>
   </si>
   <si>
-    <t>[-1.511323526216977]</t>
-  </si>
-  <si>
-    <t>[-2.047247935553075]</t>
-  </si>
-  <si>
     <t>c1ccccc1C#CC(=O)C</t>
   </si>
   <si>
@@ -238,30 +160,6 @@
     <t>[0.2104086459133793]</t>
   </si>
   <si>
-    <t>[0.1557554543226105]</t>
-  </si>
-  <si>
-    <t>[0.02122749835505171]</t>
-  </si>
-  <si>
-    <t>ClCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[2.26208706908768]</t>
-  </si>
-  <si>
-    <t>[1.920691153523556]</t>
-  </si>
-  <si>
-    <t>[1.779962024609094]</t>
-  </si>
-  <si>
-    <t>[1.334661013914161]</t>
-  </si>
-  <si>
     <t>c1ccccc1C(=O)CCCl</t>
   </si>
   <si>
@@ -274,12 +172,6 @@
     <t>[-2.065179567503288]</t>
   </si>
   <si>
-    <t>[-1.631076867119981]</t>
-  </si>
-  <si>
-    <t>[-2.019324599434428]</t>
-  </si>
-  <si>
     <t>C1CCCCC1C(=O)C</t>
   </si>
   <si>
@@ -295,15 +187,6 @@
     <t>[-1.504845945705453]</t>
   </si>
   <si>
-    <t>[-2.011273692868659]</t>
-  </si>
-  <si>
-    <t>[-1.162968706017828]</t>
-  </si>
-  <si>
-    <t>[-0.905921336588232]</t>
-  </si>
-  <si>
     <t>COc1ccccc1C(=O)C</t>
   </si>
   <si>
@@ -316,52 +199,25 @@
     <t>[-1.903622463840115]</t>
   </si>
   <si>
-    <t>[-2.514553452236547]</t>
-  </si>
-  <si>
-    <t>[-2.045838289664093]</t>
-  </si>
-  <si>
-    <t>[-1.627543282430237]</t>
-  </si>
-  <si>
     <t>COc(c1)cccc1C(=O)C</t>
   </si>
   <si>
     <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[-2.464891741858764]</t>
-  </si>
-  <si>
-    <t>[-1.808040943597905]</t>
-  </si>
-  <si>
-    <t>[-2.219277318527948]</t>
-  </si>
-  <si>
-    <t>[-2.144244780398572]</t>
-  </si>
-  <si>
-    <t>[-3.013191397561541]</t>
-  </si>
-  <si>
     <t>COc(cc1)ccc1C(=O)C</t>
   </si>
   <si>
     <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>[-2.665020180104049]</t>
+  </si>
+  <si>
     <t>[-1.315802917695658]</t>
   </si>
   <si>
-    <t>[-2.243669375247761]</t>
-  </si>
-  <si>
-    <t>[-2.19619597571919]</t>
-  </si>
-  <si>
-    <t>[-2.674518657187278]</t>
+    <t>[-3.587327999102873]</t>
   </si>
   <si>
     <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
@@ -376,12 +232,6 @@
     <t>[-2.269203661219362]</t>
   </si>
   <si>
-    <t>[-1.397285052228052]</t>
-  </si>
-  <si>
-    <t>[-0.788807058770026]</t>
-  </si>
-  <si>
     <t>COCC(=O)c1ccccc1</t>
   </si>
   <si>
@@ -391,19 +241,34 @@
     <t>[2.136112889008813]</t>
   </si>
   <si>
-    <t>[1.990303135492853]</t>
+    <t>[1.808040943597903]</t>
   </si>
   <si>
     <t>[2.194436790415197]</t>
   </si>
   <si>
-    <t>[3.00129500675854]</t>
-  </si>
-  <si>
-    <t>[1.32479042366835]</t>
-  </si>
-  <si>
-    <t>[2.111283418840173]</t>
+    <t>c1ccccc1C#CC(=O)CC</t>
+  </si>
+  <si>
+    <t>XAJIQJSLJKBJTP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[1.330559931327695]</t>
+  </si>
+  <si>
+    <t>[0.2839537127928058]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C#CC(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[1.680937043443643]</t>
+  </si>
+  <si>
+    <t>[0.5824968785696466]</t>
   </si>
   <si>
     <t>C(=O)(c1c(Br)cccc1)C</t>
@@ -412,27 +277,18 @@
     <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
   </si>
   <si>
+    <t>[-2.61235179709804]</t>
+  </si>
+  <si>
     <t>[-2.331161440365284]</t>
   </si>
   <si>
-    <t>[-1.880737957418336]</t>
-  </si>
-  <si>
-    <t>[-2.693919266213809]</t>
-  </si>
-  <si>
     <t>C(=O)(c1cc(Br)ccc1)C</t>
   </si>
   <si>
     <t>JYAQYXOVOHJRCS-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[-2.113674784992912]</t>
-  </si>
-  <si>
-    <t>[-2.809402547927118]</t>
-  </si>
-  <si>
     <t>C(=O)(c1ccc(C)cc1)C</t>
   </si>
   <si>
@@ -442,12 +298,6 @@
     <t>[-2.026808863082255]</t>
   </si>
   <si>
-    <t>[-2.33554862969443]</t>
-  </si>
-  <si>
-    <t>[-2.826413302134644]</t>
-  </si>
-  <si>
     <t>C(=O)(c1ccc(F)cc1)C</t>
   </si>
   <si>
@@ -460,54 +310,12 @@
     <t>[-2.506528426687459]</t>
   </si>
   <si>
-    <t>[-2.09234534182431]</t>
-  </si>
-  <si>
-    <t>[-2.661460582683795]</t>
-  </si>
-  <si>
     <t>C(=O)(c1ccc(Br)cc1)C</t>
   </si>
   <si>
     <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[-1.967436327412258]</t>
-  </si>
-  <si>
-    <t>[-2.621904383349337]</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=NC=CC=C1)C</t>
-  </si>
-  <si>
-    <t>AJKVQEKCUACUMD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-0.5700511506516782]</t>
-  </si>
-  <si>
-    <t>[-2.173962513486877]</t>
-  </si>
-  <si>
-    <t>[-2.930710585731779]</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=NC=C1)C</t>
-  </si>
-  <si>
-    <t>WMQUKDQWMMOHSA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-0.9118210553813246]</t>
-  </si>
-  <si>
-    <t>[-1.32194749734552]</t>
-  </si>
-  <si>
-    <t>[-2.221785753836356]</t>
-  </si>
-  <si>
     <t>C(=O)(/C=C/c1ccccc1)C</t>
   </si>
   <si>
@@ -517,12 +325,6 @@
     <t>[-1.112422729872088]</t>
   </si>
   <si>
-    <t>[-0.4964445784038843]</t>
-  </si>
-  <si>
-    <t>[-2.18618433457459]</t>
-  </si>
-  <si>
     <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
   </si>
   <si>
@@ -533,12 +335,6 @@
   </si>
   <si>
     <t>[-0.5363260903453796]</t>
-  </si>
-  <si>
-    <t>[-1.157138547361852]</t>
-  </si>
-  <si>
-    <t>[-1.607082824398217]</t>
   </si>
 </sst>
 </file>
@@ -1566,44 +1362,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="31861125"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>952500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27" descr="f"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="33127950"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1901,7 +1659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1910,7 +1668,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1929,716 +1687,447 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="100" customHeight="1">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="100" customHeight="1">
-      <c r="A2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="100" customHeight="1">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="100" customHeight="1">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="100" customHeight="1">
-      <c r="A3" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="100" customHeight="1">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="100" customHeight="1">
-      <c r="A4" t="s">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="100" customHeight="1">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="100" customHeight="1">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="100" customHeight="1">
-      <c r="A5" t="s">
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="100" customHeight="1">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="100" customHeight="1">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="100" customHeight="1">
-      <c r="A6" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="100" customHeight="1">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="H6" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="100" customHeight="1">
-      <c r="A7" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="100" customHeight="1">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E11" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="100" customHeight="1">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="I7" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="100" customHeight="1">
-      <c r="A8" t="s">
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="100" customHeight="1">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s">
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="H8" t="s">
+      <c r="E13" t="s">
         <v>55</v>
       </c>
-      <c r="I8" t="s">
+      <c r="F13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="100" customHeight="1">
-      <c r="A9" t="s">
+    <row r="14" spans="1:6" ht="100" customHeight="1">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D14" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="100" customHeight="1">
+      <c r="A15" t="s">
         <v>61</v>
       </c>
-      <c r="H9" t="s">
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="I9" t="s">
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="100" customHeight="1">
+      <c r="A16" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="100" customHeight="1">
-      <c r="A10" t="s">
+      <c r="C16" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D16" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F16" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="100" customHeight="1">
+      <c r="A17" t="s">
         <v>68</v>
       </c>
-      <c r="H10" t="s">
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="100" customHeight="1">
-      <c r="A11" t="s">
+      <c r="D17" t="s">
         <v>70</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E17" t="s">
         <v>71</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="100" customHeight="1">
+      <c r="A18" t="s">
         <v>72</v>
       </c>
-      <c r="E11" t="s">
+      <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="H11" t="s">
+      <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="100" customHeight="1">
-      <c r="A12" t="s">
+      <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="100" customHeight="1">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C19" t="s">
         <v>78</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E19" t="s">
         <v>80</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="100" customHeight="1">
+      <c r="A20" t="s">
         <v>81</v>
       </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="100" customHeight="1">
-      <c r="A13" t="s">
+      <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E20" t="s">
         <v>84</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="100" customHeight="1">
+      <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="H13" t="s">
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
         <v>87</v>
       </c>
-      <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="100" customHeight="1">
-      <c r="A14" t="s">
+      <c r="F21" t="s">
         <v>88</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="22" spans="1:6" ht="100" customHeight="1">
+      <c r="A22" t="s">
         <v>89</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C22" t="s">
         <v>90</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="100" customHeight="1">
+      <c r="A23" t="s">
         <v>91</v>
       </c>
-      <c r="F14" t="s">
+      <c r="C23" t="s">
         <v>92</v>
       </c>
-      <c r="G14" t="s">
+      <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="H14" t="s">
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="100" customHeight="1">
+      <c r="A24" t="s">
         <v>94</v>
       </c>
-      <c r="I14" t="s">
+      <c r="C24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="100" customHeight="1">
-      <c r="A15" t="s">
+      <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
         <v>97</v>
       </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="25" spans="1:6" ht="100" customHeight="1">
+      <c r="A25" t="s">
         <v>98</v>
       </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="C25" t="s">
         <v>99</v>
       </c>
-      <c r="G15" t="s">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="100" customHeight="1">
+      <c r="A26" t="s">
         <v>100</v>
       </c>
-      <c r="H15" t="s">
+      <c r="C26" t="s">
         <v>101</v>
       </c>
-      <c r="I15" t="s">
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="100" customHeight="1">
-      <c r="A16" t="s">
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="100" customHeight="1">
+      <c r="A27" t="s">
         <v>103</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C27" t="s">
         <v>104</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D27" t="s">
         <v>105</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="100" customHeight="1">
-      <c r="A17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="100" customHeight="1">
-      <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="100" customHeight="1">
-      <c r="A19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="100" customHeight="1">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="100" customHeight="1">
-      <c r="A21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>137</v>
-      </c>
-      <c r="H21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="100" customHeight="1">
-      <c r="A22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="100" customHeight="1">
-      <c r="A23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="100" customHeight="1">
-      <c r="A24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="100" customHeight="1">
-      <c r="A25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" t="s">
-        <v>157</v>
-      </c>
-      <c r="H25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="100" customHeight="1">
-      <c r="A26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="100" customHeight="1">
-      <c r="A27" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" t="s">
-        <v>147</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="100" customHeight="1">
-      <c r="A28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" t="s">
-        <v>171</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/datalist/datalist.xlsx
+++ b/datalist/datalist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="111">
   <si>
     <t>smiles</t>
   </si>
@@ -34,118 +34,205 @@
     <t>ΔΔG.expt.Ru</t>
   </si>
   <si>
+    <t>c1ccccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[2.139409515555571]</t>
+  </si>
+  <si>
+    <t>[-2.117928070821831]</t>
+  </si>
+  <si>
+    <t>[3.170636656961724]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCCCCCCCC</t>
+  </si>
+  <si>
+    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[2.464891741858761]</t>
+  </si>
+  <si>
+    <t>[-1.808040943597905]</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-0.2854408837365779]</t>
+  </si>
+  <si>
+    <t>[-1.453139524998222]</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCC2(=O)</t>
+  </si>
+  <si>
+    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[2.313504990947262]</t>
+  </si>
+  <si>
+    <t>[-2.136803750966791]</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCCC2(=O)</t>
+  </si>
+  <si>
+    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[1.328058043046766]</t>
+  </si>
+  <si>
+    <t>[-1.332281203281558]</t>
+  </si>
+  <si>
+    <t>c1c2ccccc2ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[2.292437828399084]</t>
+  </si>
+  <si>
+    <t>[-2.293347004688449]</t>
+  </si>
+  <si>
+    <t>[2.752430839032118]</t>
+  </si>
+  <si>
+    <t>s1cccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[2.044102454064183]</t>
+  </si>
+  <si>
+    <t>[-1.525233356759745]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCCl</t>
+  </si>
+  <si>
+    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[1.888460135226809]</t>
+  </si>
+  <si>
+    <t>[-2.065179567503288]</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C(=O)C</t>
+  </si>
+  <si>
+    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[1.278251167901181]</t>
+  </si>
+  <si>
+    <t>[-0.2626596419205717]</t>
+  </si>
+  <si>
+    <t>[1.504845945705453]</t>
+  </si>
+  <si>
+    <t>COc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[2.047561172260569]</t>
+  </si>
+  <si>
+    <t>[1.903622463840116]</t>
+  </si>
+  <si>
+    <t>COc(c1)cccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>COc(cc1)ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[2.66502018010404]</t>
+  </si>
+  <si>
+    <t>[-1.315802917695658]</t>
+  </si>
+  <si>
+    <t>[3.58732799910286]</t>
+  </si>
+  <si>
+    <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
+  </si>
+  <si>
+    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[1.979514389308825]</t>
+  </si>
+  <si>
+    <t>[-2.269203661219362]</t>
+  </si>
+  <si>
+    <t>COCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-2.136112889008815]</t>
+  </si>
+  <si>
+    <t>[1.808040943597903]</t>
+  </si>
+  <si>
+    <t>[-2.194436790415199]</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[2.24602855897637]</t>
+  </si>
+  <si>
     <t>c1ccccc1C(=O)C</t>
   </si>
   <si>
     <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[-2.204267981024933]</t>
-  </si>
-  <si>
-    <t>[-2.136803750966791]</t>
-  </si>
-  <si>
-    <t>[-3.170636656961734]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.139409515555565]</t>
-  </si>
-  <si>
-    <t>[-2.117928070821831]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCCCCCCCC</t>
-  </si>
-  <si>
-    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.464891741858764]</t>
-  </si>
-  <si>
-    <t>[-1.808040943597905]</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)C(C)C</t>
-  </si>
-  <si>
-    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[0.2854408837365778]</t>
-  </si>
-  <si>
-    <t>[-1.453139524998222]</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCC2(=O)</t>
-  </si>
-  <si>
-    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.313504990947258]</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCCC2(=O)</t>
-  </si>
-  <si>
-    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.328058043046766]</t>
-  </si>
-  <si>
-    <t>[-1.332281203281558]</t>
-  </si>
-  <si>
-    <t>c1c2ccccc2ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.292437828399083]</t>
-  </si>
-  <si>
-    <t>[-2.293347004688449]</t>
-  </si>
-  <si>
-    <t>[-2.752430839032114]</t>
-  </si>
-  <si>
-    <t>s1cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.044102454064185]</t>
-  </si>
-  <si>
-    <t>[-1.525233356759745]</t>
-  </si>
-  <si>
-    <t>CC(C)(C)C(=O)C</t>
-  </si>
-  <si>
-    <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.246028558976377]</t>
-  </si>
-  <si>
-    <t>[-2.172565327387805]</t>
+    <t>[2.204267981024933]</t>
+  </si>
+  <si>
+    <t>[-2.26778354843842]</t>
   </si>
   <si>
     <t>c1ccccc1C#CC(=O)C</t>
@@ -154,106 +241,19 @@
     <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[0.8580310015114319]</t>
+    <t>[-0.8580310015114321]</t>
   </si>
   <si>
     <t>[0.2104086459133793]</t>
   </si>
   <si>
-    <t>c1ccccc1C(=O)CCCl</t>
-  </si>
-  <si>
-    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.888460135226811]</t>
-  </si>
-  <si>
-    <t>[-2.065179567503288]</t>
-  </si>
-  <si>
-    <t>C1CCCCC1C(=O)C</t>
-  </si>
-  <si>
-    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.278251167901181]</t>
-  </si>
-  <si>
-    <t>[-0.2626596419205717]</t>
-  </si>
-  <si>
-    <t>[-1.504845945705453]</t>
-  </si>
-  <si>
-    <t>COc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.047561172260572]</t>
-  </si>
-  <si>
-    <t>[-1.903622463840115]</t>
-  </si>
-  <si>
-    <t>COc(c1)cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc(cc1)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.665020180104049]</t>
-  </si>
-  <si>
-    <t>[-1.315802917695658]</t>
-  </si>
-  <si>
-    <t>[-3.587327999102873]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
-  </si>
-  <si>
-    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.979514389308824]</t>
-  </si>
-  <si>
-    <t>[-2.269203661219362]</t>
-  </si>
-  <si>
-    <t>COCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[2.136112889008813]</t>
-  </si>
-  <si>
-    <t>[1.808040943597903]</t>
-  </si>
-  <si>
-    <t>[2.194436790415197]</t>
-  </si>
-  <si>
     <t>c1ccccc1C#CC(=O)CC</t>
   </si>
   <si>
     <t>XAJIQJSLJKBJTP-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[1.330559931327695]</t>
+    <t>[-1.330559931327695]</t>
   </si>
   <si>
     <t>[0.2839537127928058]</t>
@@ -265,7 +265,7 @@
     <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[1.680937043443643]</t>
+    <t>[-1.680937043443645]</t>
   </si>
   <si>
     <t>[0.5824968785696466]</t>
@@ -280,7 +280,7 @@
     <t>[-2.61235179709804]</t>
   </si>
   <si>
-    <t>[-2.331161440365284]</t>
+    <t>[2.331161440365284]</t>
   </si>
   <si>
     <t>C(=O)(c1cc(Br)ccc1)C</t>
@@ -295,7 +295,7 @@
     <t>GNKZMNRKLCTJAY-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[-2.026808863082255]</t>
+    <t>[2.026808863082253]</t>
   </si>
   <si>
     <t>C(=O)(c1ccc(F)cc1)C</t>
@@ -304,10 +304,10 @@
     <t>ZDPAWHACYDRYIW-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[-2.106816252331984]</t>
-  </si>
-  <si>
-    <t>[-2.506528426687459]</t>
+    <t>[2.106816252331982]</t>
+  </si>
+  <si>
+    <t>[2.506528426687457]</t>
   </si>
   <si>
     <t>C(=O)(c1ccc(Br)cc1)C</t>
@@ -325,16 +325,28 @@
     <t>[-1.112422729872088]</t>
   </si>
   <si>
-    <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
-  </si>
-  <si>
-    <t>DQFBYFPFKXHELB-VAWYXSNFSA-N</t>
-  </si>
-  <si>
-    <t>[0.4261585796060459]</t>
-  </si>
-  <si>
-    <t>[-0.5363260903453796]</t>
+    <t>C(=O)(c1ccc(C)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>WXPWZZHELZEVPO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-0.2122172924848272]</t>
+  </si>
+  <si>
+    <t>[0.09604364396853164]</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C(F)(F)F)cc1)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>[-0.4802164922069799]</t>
+  </si>
+  <si>
+    <t>[-0.6110540618560099]</t>
   </si>
 </sst>
 </file>
@@ -1362,6 +1374,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="31861125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="33127950"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1659,7 +1709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,24 +1769,24 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1">
@@ -1753,7 +1803,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1">
@@ -1767,112 +1817,112 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100" customHeight="1">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100" customHeight="1">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -1903,10 +1953,10 @@
         <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -1917,64 +1967,64 @@
         <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="100" customHeight="1">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="100" customHeight="1">
@@ -1991,7 +2041,7 @@
         <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="100" customHeight="1">
@@ -2008,7 +2058,7 @@
         <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="100" customHeight="1">
@@ -2019,7 +2069,7 @@
         <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>87</v>
@@ -2036,13 +2086,13 @@
         <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="100" customHeight="1">
@@ -2056,10 +2106,10 @@
         <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="100" customHeight="1">
@@ -2073,7 +2123,7 @@
         <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
         <v>97</v>
@@ -2087,13 +2137,13 @@
         <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="100" customHeight="1">
@@ -2104,7 +2154,7 @@
         <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>102</v>
@@ -2124,10 +2174,27 @@
         <v>105</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="100" customHeight="1">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/datalist/datalist.xlsx
+++ b/datalist/datalist.xlsx
@@ -14,327 +14,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>Gaussian_error_CBS</t>
+  </si>
+  <si>
+    <t>Gaussian_error_DIP</t>
+  </si>
+  <si>
+    <t>Gaussian_error_Ru</t>
+  </si>
+  <si>
+    <t>Gaussian_test_CBS</t>
+  </si>
+  <si>
+    <t>Gaussian_test_DIP</t>
+  </si>
+  <si>
+    <t>Gaussian_test_Ru</t>
+  </si>
+  <si>
+    <t>inchikey</t>
+  </si>
   <si>
     <t>smiles</t>
   </si>
   <si>
+    <t>ΔΔG.expt.CBS</t>
+  </si>
+  <si>
+    <t>ΔΔG.expt.DIP</t>
+  </si>
+  <si>
+    <t>ΔΔG.expt.Ru</t>
+  </si>
+  <si>
     <t>ROMol</t>
   </si>
   <si>
-    <t>inchikey</t>
-  </si>
-  <si>
-    <t>ΔΔG.expt.cbs</t>
-  </si>
-  <si>
-    <t>ΔΔG.expt.dip</t>
-  </si>
-  <si>
-    <t>ΔΔG.expt.Ru</t>
+    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C(=O)C</t>
+  </si>
+  <si>
+    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc(OC)ccc1)C</t>
+  </si>
+  <si>
+    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(OC)cc1)C</t>
+  </si>
+  <si>
+    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>c1ccccc1C(=O)C</t>
   </si>
   <si>
-    <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.204267981024933]</t>
-  </si>
-  <si>
-    <t>[-2.136803750966791]</t>
-  </si>
-  <si>
-    <t>[-3.170636656961734]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t>KRIOVPPHQSLHCZ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.139409515555565]</t>
-  </si>
-  <si>
-    <t>[-2.117928070821831]</t>
+    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CS1)C</t>
+  </si>
+  <si>
+    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1cc2ccccc2cc1)C</t>
+  </si>
+  <si>
+    <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCC2(=O)</t>
+  </si>
+  <si>
+    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCCC2(=O)</t>
+  </si>
+  <si>
+    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C1C(C2=CC=CC=C2)(C3=CC=CC=C3)CCC1</t>
+  </si>
+  <si>
+    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>c1ccccc1C(=O)CCCCCCCCC</t>
   </si>
   <si>
-    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.464891741858764]</t>
-  </si>
-  <si>
-    <t>[-1.808040943597905]</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C#CC(=O)C</t>
+  </si>
+  <si>
+    <t>XAJIQJSLJKBJTP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C#CC1=CC=CC=C1)CC</t>
+  </si>
+  <si>
+    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C#CC1=CC=CC=C1)C(C)C</t>
+  </si>
+  <si>
+    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)CCCl</t>
+  </si>
+  <si>
+    <t>SYBYTAAJFKOIEJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C(C)C)C</t>
+  </si>
+  <si>
+    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Brc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1/C=C/C(=O)C</t>
+  </si>
+  <si>
+    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1cc(Br)ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>VMHYWKBKHMYRNF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(Cl)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>DWFDQVMFSLLMPE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(F)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>c1ccccc1C(=O)C(C)C</t>
   </si>
   <si>
-    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[0.2854408837365778]</t>
-  </si>
-  <si>
-    <t>[-1.453139524998222]</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCC2(=O)</t>
-  </si>
-  <si>
-    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.313504990947258]</t>
-  </si>
-  <si>
-    <t>c12ccccc1CCCC2(=O)</t>
-  </si>
-  <si>
-    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.328058043046766]</t>
-  </si>
-  <si>
-    <t>[-1.332281203281558]</t>
-  </si>
-  <si>
-    <t>c1c2ccccc2ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>XSAYZAUNJMRRIR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.292437828399083]</t>
-  </si>
-  <si>
-    <t>[-2.293347004688449]</t>
-  </si>
-  <si>
-    <t>[-2.752430839032114]</t>
-  </si>
-  <si>
-    <t>s1cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.044102454064185]</t>
-  </si>
-  <si>
-    <t>[-1.525233356759745]</t>
-  </si>
-  <si>
-    <t>CC(C)(C)C(=O)C</t>
-  </si>
-  <si>
-    <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.246028558976377]</t>
-  </si>
-  <si>
-    <t>[-2.172565327387805]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C#CC(=O)C</t>
-  </si>
-  <si>
-    <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[0.8580310015114319]</t>
-  </si>
-  <si>
-    <t>[0.2104086459133793]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCCl</t>
-  </si>
-  <si>
-    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.888460135226811]</t>
-  </si>
-  <si>
-    <t>[-2.065179567503288]</t>
-  </si>
-  <si>
-    <t>C1CCCCC1C(=O)C</t>
-  </si>
-  <si>
-    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.278251167901181]</t>
-  </si>
-  <si>
-    <t>[-0.2626596419205717]</t>
-  </si>
-  <si>
-    <t>[-1.504845945705453]</t>
-  </si>
-  <si>
-    <t>COc1ccccc1C(=O)C</t>
+    <t>ZDPAWHACYDRYIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(F)cc1)C</t>
   </si>
   <si>
     <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>[-2.047561172260572]</t>
-  </si>
-  <si>
-    <t>[-1.903622463840115]</t>
-  </si>
-  <si>
-    <t>COc(c1)cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>COc(cc1)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.665020180104049]</t>
-  </si>
-  <si>
-    <t>[-1.315802917695658]</t>
-  </si>
-  <si>
-    <t>[-3.587327999102873]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
-  </si>
-  <si>
-    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-1.979514389308824]</t>
-  </si>
-  <si>
-    <t>[-2.269203661219362]</t>
-  </si>
-  <si>
-    <t>COCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[2.136112889008813]</t>
-  </si>
-  <si>
-    <t>[1.808040943597903]</t>
-  </si>
-  <si>
-    <t>[2.194436790415197]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C#CC(=O)CC</t>
-  </si>
-  <si>
-    <t>XAJIQJSLJKBJTP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[1.330559931327695]</t>
-  </si>
-  <si>
-    <t>[0.2839537127928058]</t>
-  </si>
-  <si>
-    <t>c1ccccc1C#CC(=O)C(C)C</t>
-  </si>
-  <si>
-    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[1.680937043443643]</t>
-  </si>
-  <si>
-    <t>[0.5824968785696466]</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(Br)cccc1)C</t>
-  </si>
-  <si>
-    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.61235179709804]</t>
-  </si>
-  <si>
-    <t>[-2.331161440365284]</t>
+    <t>C(=O)(c1c(OC)cccc1)C</t>
+  </si>
+  <si>
+    <t>JYAQYXOVOHJRCS-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1cc(Br)ccc1)C</t>
   </si>
   <si>
-    <t>JYAQYXOVOHJRCS-UHFFFAOYSA-N</t>
+    <t>YXWWHNCQZBVZPV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C)cccc1)C</t>
+  </si>
+  <si>
+    <t>GNKZMNRKLCTJAY-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1ccc(C)cc1)C</t>
-  </si>
-  <si>
-    <t>GNKZMNRKLCTJAY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.026808863082255]</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(F)cc1)C</t>
-  </si>
-  <si>
-    <t>ZDPAWHACYDRYIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>[-2.106816252331984]</t>
-  </si>
-  <si>
-    <t>[-2.506528426687459]</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(Br)cc1)C</t>
-  </si>
-  <si>
-    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(/C=C/c1ccccc1)C</t>
-  </si>
-  <si>
-    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
-  </si>
-  <si>
-    <t>[-1.112422729872088]</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccccc1)/C=C/c2ccccc2</t>
-  </si>
-  <si>
-    <t>DQFBYFPFKXHELB-VAWYXSNFSA-N</t>
-  </si>
-  <si>
-    <t>[0.4261585796060459]</t>
-  </si>
-  <si>
-    <t>[-0.5363260903453796]</t>
   </si>
 </sst>
 </file>
@@ -385,13 +274,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -411,25 +300,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="190500"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -449,25 +338,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1457325"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="1457325"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -487,25 +376,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="2724150"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="2724150"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -525,25 +414,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="3990975"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="3990975"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -563,25 +452,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="5257800"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="5257800"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -601,25 +490,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="6524625"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="6524625"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -639,25 +528,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="7791450"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="7791450"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -677,25 +566,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="9058275"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="9058275"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -715,25 +604,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="10325100"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="10325100"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -753,25 +642,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="11591925"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="11591925"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -791,25 +680,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="12858750"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="12858750"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -829,25 +718,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="14125575"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="14125575"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -867,25 +756,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="15392400"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="15392400"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -905,25 +794,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="16659225"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="16659225"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -943,25 +832,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="17926050"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="17926050"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -981,25 +870,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="19192875"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="19192875"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -1019,25 +908,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="20459700"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="20459700"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -1057,25 +946,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="21726525"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="21726525"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -1095,25 +984,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="22993350"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="22993350"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -1133,25 +1022,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="24260175"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="24260175"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -1171,25 +1060,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="25527000"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="25527000"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -1209,25 +1098,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="26793825"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="26793825"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -1247,25 +1136,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="28060650"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="28060650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -1285,25 +1174,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="29327475"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="29327475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -1323,25 +1212,25 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="30594300"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
+          <a:off x="6705600" y="30594300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>952500</xdr:rowOff>
@@ -1361,7 +1250,121 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="31861125"/>
+          <a:off x="6705600" y="31861125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="33127950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="34394775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="35661600"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1659,16 +1662,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1687,447 +1690,1038 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="100" customHeight="1">
-      <c r="A2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="100" customHeight="1">
-      <c r="A3" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="100" customHeight="1">
+      <c r="A2">
+        <v>0.5200431685133646</v>
+      </c>
+      <c r="B2">
+        <v>0.5909458687772295</v>
+      </c>
+      <c r="C2">
+        <v>0.2511658104903036</v>
+      </c>
+      <c r="D2">
+        <v>1.798294336414546</v>
+      </c>
+      <c r="E2">
+        <v>0.8536055106978012</v>
+      </c>
+      <c r="F2">
+        <v>1.756011756195757</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I2">
+        <v>1.278251167901181</v>
+      </c>
+      <c r="J2">
+        <v>0.2626596419205716</v>
+      </c>
+      <c r="K2">
+        <v>1.504845945705453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="100" customHeight="1">
+      <c r="A3">
+        <v>-0.4201092566700479</v>
+      </c>
+      <c r="B3">
+        <v>0.3387556155053666</v>
+      </c>
+      <c r="C3">
+        <v>0.1606032804671003</v>
+      </c>
+      <c r="D3">
+        <v>2.044782485188713</v>
+      </c>
+      <c r="E3">
+        <v>2.14679655910327</v>
+      </c>
+      <c r="F3">
+        <v>3.331239937428824</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="100" customHeight="1">
-      <c r="A4" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I3">
+        <v>2.464891741858761</v>
+      </c>
+      <c r="J3">
+        <v>1.808040943597903</v>
+      </c>
+      <c r="K3">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="100" customHeight="1">
+      <c r="A4">
+        <v>-0.1912111528980653</v>
+      </c>
+      <c r="B4">
+        <v>1.075370551728927</v>
+      </c>
+      <c r="C4">
+        <v>-0.5588914015154347</v>
+      </c>
+      <c r="D4">
+        <v>2.473809027205975</v>
+      </c>
+      <c r="E4">
+        <v>2.391173469424585</v>
+      </c>
+      <c r="F4">
+        <v>3.028436597587425</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4">
+        <v>2.66502018010404</v>
+      </c>
+      <c r="J4">
+        <v>1.315802917695658</v>
+      </c>
+      <c r="K4">
+        <v>3.58732799910286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="100" customHeight="1">
+      <c r="A5">
+        <v>-0.18814955926528</v>
+      </c>
+      <c r="B5">
+        <v>-0.01674892459104926</v>
+      </c>
+      <c r="C5">
+        <v>0.2226816221458798</v>
+      </c>
+      <c r="D5">
+        <v>1.95125995629029</v>
+      </c>
+      <c r="E5">
+        <v>2.101179146230775</v>
+      </c>
+      <c r="F5">
+        <v>3.393318279107604</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="100" customHeight="1">
-      <c r="A5" t="s">
+      <c r="I5">
+        <v>2.13940951555557</v>
+      </c>
+      <c r="J5">
+        <v>2.117928070821824</v>
+      </c>
+      <c r="K5">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="100" customHeight="1">
+      <c r="A6">
+        <v>0.1824227826024774</v>
+      </c>
+      <c r="B6">
+        <v>-0.1777899108326628</v>
+      </c>
+      <c r="C6">
+        <v>0.2001459063834119</v>
+      </c>
+      <c r="D6">
+        <v>2.38669076362741</v>
+      </c>
+      <c r="E6">
+        <v>2.08999363760576</v>
+      </c>
+      <c r="F6">
+        <v>3.370782563345136</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I6">
+        <v>2.204267981024933</v>
+      </c>
+      <c r="J6">
+        <v>2.267783548438423</v>
+      </c>
+      <c r="K6">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="100" customHeight="1">
+      <c r="A7">
+        <v>0.1176859184921515</v>
+      </c>
+      <c r="B7">
+        <v>-0.03222529673194141</v>
+      </c>
+      <c r="C7">
+        <v>-0.8934818322057843</v>
+      </c>
+      <c r="D7">
+        <v>2.161788372556334</v>
+      </c>
+      <c r="E7">
+        <v>1.493008060027802</v>
+      </c>
+      <c r="F7">
+        <v>2.27715482475594</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H7" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="100" customHeight="1">
-      <c r="A6" t="s">
+      <c r="I7">
+        <v>2.044102454064183</v>
+      </c>
+      <c r="J7">
+        <v>1.525233356759743</v>
+      </c>
+      <c r="K7">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="100" customHeight="1">
+      <c r="A8">
+        <v>0.08847468870358455</v>
+      </c>
+      <c r="B8">
+        <v>-0.2938130485632964</v>
+      </c>
+      <c r="C8">
+        <v>0.3421747910584241</v>
+      </c>
+      <c r="D8">
+        <v>2.380912517102669</v>
+      </c>
+      <c r="E8">
+        <v>1.99953395612515</v>
+      </c>
+      <c r="F8">
+        <v>3.094605630090542</v>
+      </c>
+      <c r="G8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I8">
+        <v>2.292437828399084</v>
+      </c>
+      <c r="J8">
+        <v>2.293347004688446</v>
+      </c>
+      <c r="K8">
+        <v>2.752430839032118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="100" customHeight="1">
+      <c r="A9">
+        <v>-1.102767564279766</v>
+      </c>
+      <c r="B9">
+        <v>-0.1866350522754121</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.143260994696604</v>
+      </c>
+      <c r="E9">
+        <v>1.621405891322491</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="100" customHeight="1">
-      <c r="A7" t="s">
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s">
+      <c r="I9">
+        <v>2.24602855897637</v>
+      </c>
+      <c r="J9">
+        <v>1.808040943597903</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="100" customHeight="1">
+      <c r="A10">
+        <v>-0.815558792330433</v>
+      </c>
+      <c r="B10">
+        <v>-1.125048007446593</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1.497946198616829</v>
+      </c>
+      <c r="E10">
+        <v>1.011755743520202</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I10">
+        <v>2.313504990947262</v>
+      </c>
+      <c r="J10">
+        <v>2.136803750966795</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="100" customHeight="1">
+      <c r="A11">
+        <v>0.7942851623083291</v>
+      </c>
+      <c r="B11">
+        <v>0.3083416273602468</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2.122343205355095</v>
+      </c>
+      <c r="E11">
+        <v>1.640622830641804</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="100" customHeight="1">
-      <c r="A8" t="s">
+      <c r="H11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="I11">
+        <v>1.328058043046766</v>
+      </c>
+      <c r="J11">
+        <v>1.332281203281557</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="100" customHeight="1">
+      <c r="A12">
+        <v>-0.6479792048983324</v>
+      </c>
+      <c r="B12">
+        <v>-1.308902801913983</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1.331535184410493</v>
+      </c>
+      <c r="E12">
+        <v>0.9603008593053799</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H12" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="I12">
+        <v>1.979514389308825</v>
+      </c>
+      <c r="J12">
+        <v>2.269203661219363</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="100" customHeight="1">
+      <c r="A13">
+        <v>-0.6169253616270087</v>
+      </c>
+      <c r="B13">
+        <v>0.4640620151286234</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1.847966380231752</v>
+      </c>
+      <c r="E13">
+        <v>2.272102958726526</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="100" customHeight="1">
-      <c r="A9" t="s">
+      <c r="I13">
+        <v>2.464891741858761</v>
+      </c>
+      <c r="J13">
+        <v>1.808040943597903</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="100" customHeight="1">
+      <c r="A14">
+        <v>0.3745439893695292</v>
+      </c>
+      <c r="B14">
+        <v>0.3243707862648949</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>-0.4834870121419029</v>
+      </c>
+      <c r="E14">
+        <v>0.1139621403515156</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="H14" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
+      <c r="I14">
+        <v>-0.8580310015114321</v>
+      </c>
+      <c r="J14">
+        <v>-0.2104086459133792</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="100" customHeight="1">
+      <c r="A15">
+        <v>0.2227616600431934</v>
+      </c>
+      <c r="B15">
+        <v>-0.1422272124120016</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-1.107798271284502</v>
+      </c>
+      <c r="E15">
+        <v>-0.4261809252048074</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H15" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="100" customHeight="1">
-      <c r="A10" t="s">
+      <c r="I15">
+        <v>-1.330559931327695</v>
+      </c>
+      <c r="J15">
+        <v>-0.2839537127928058</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="100" customHeight="1">
+      <c r="A16">
+        <v>0.09278148508970174</v>
+      </c>
+      <c r="B16">
+        <v>-0.930788225093195</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>-1.588155558353943</v>
+      </c>
+      <c r="E16">
+        <v>-1.513285103662842</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="H16" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="I16">
+        <v>-1.680937043443645</v>
+      </c>
+      <c r="J16">
+        <v>-0.5824968785696466</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="100" customHeight="1">
+      <c r="A17">
+        <v>-0.06130965124616572</v>
+      </c>
+      <c r="B17">
+        <v>0.2260121057949029</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1.827150483980643</v>
+      </c>
+      <c r="E17">
+        <v>2.29119167329819</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H17" t="s">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="100" customHeight="1">
-      <c r="A11" t="s">
+      <c r="I17">
+        <v>1.888460135226809</v>
+      </c>
+      <c r="J17">
+        <v>2.065179567503287</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="100" customHeight="1">
+      <c r="A18">
+        <v>0.01625716285407919</v>
+      </c>
+      <c r="B18">
+        <v>0.3100398048379471</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1.011842015056664</v>
+      </c>
+      <c r="E18">
+        <v>0.6373887670142608</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="H18" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
+      <c r="I18">
+        <v>0.9955848522025851</v>
+      </c>
+      <c r="J18">
+        <v>0.3273489621763137</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="100" customHeight="1">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>-1.036526320890946</v>
+      </c>
+      <c r="C19">
+        <v>0.09446152009120956</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1.575825476207085</v>
+      </c>
+      <c r="F19">
+        <v>2.425622960456494</v>
+      </c>
+      <c r="G19" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="100" customHeight="1">
-      <c r="A12" t="s">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>2.612351797098031</v>
+      </c>
+      <c r="K19">
+        <v>2.331161440365284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="100" customHeight="1">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>-0.5468568688449488</v>
+      </c>
+      <c r="C20">
+        <v>-0.4739658934390647</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.5655658610271402</v>
+      </c>
+      <c r="F20">
+        <v>2.032562533248392</v>
+      </c>
+      <c r="G20" t="s">
         <v>48</v>
       </c>
-      <c r="C12" t="s">
+      <c r="H20" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.112422729872089</v>
+      </c>
+      <c r="K20">
+        <v>2.506528426687457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="100" customHeight="1">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0.3201155103782929</v>
+      </c>
+      <c r="C21">
+        <v>-0.6480251427271018</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>2.38529507788158</v>
+      </c>
+      <c r="F21">
+        <v>2.939302856375758</v>
+      </c>
+      <c r="G21" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H21" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="100" customHeight="1">
-      <c r="A13" t="s">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2.065179567503287</v>
+      </c>
+      <c r="K21">
+        <v>3.58732799910286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="100" customHeight="1">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0.2372405938055702</v>
+      </c>
+      <c r="C22">
+        <v>0.3035063247976986</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.05798199116748314</v>
+      </c>
+      <c r="F22">
+        <v>-2.20302210188976</v>
+      </c>
+      <c r="G22" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
+      <c r="H22" t="s">
         <v>53</v>
       </c>
-      <c r="D13" t="s">
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>-0.1792586026380871</v>
+      </c>
+      <c r="K22">
+        <v>-2.506528426687459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="100" customHeight="1">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0.1870833467743174</v>
+      </c>
+      <c r="C23">
+        <v>0.8985715526326867</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>-0.1541190984363928</v>
+      </c>
+      <c r="F23">
+        <v>-2.272065104329047</v>
+      </c>
+      <c r="G23" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H23" t="s">
         <v>55</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>-0.3412024452107102</v>
+      </c>
+      <c r="K23">
+        <v>-3.170636656961734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="100" customHeight="1">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>0.1331768640572213</v>
+      </c>
+      <c r="C24">
+        <v>0.3218360068646733</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0.1331768640572213</v>
+      </c>
+      <c r="F24">
+        <v>-1.664882069204824</v>
+      </c>
+      <c r="G24" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="100" customHeight="1">
-      <c r="A14" t="s">
+      <c r="H24" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>-1.986718076069497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="100" customHeight="1">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>-0.1308745709134145</v>
+      </c>
+      <c r="C25">
+        <v>-0.4217651050888751</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1.322264954084807</v>
+      </c>
+      <c r="F25">
+        <v>2.748871551872849</v>
+      </c>
+      <c r="G25" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H25" t="s">
         <v>59</v>
       </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.453139524998222</v>
+      </c>
+      <c r="K25">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="100" customHeight="1">
+      <c r="A26">
+        <v>0.6211446646624754</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1.0380806363768</v>
+      </c>
+      <c r="D26">
+        <v>2.727960916994458</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>3.544609063064257</v>
+      </c>
+      <c r="G26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="100" customHeight="1">
-      <c r="A15" t="s">
+      <c r="H26" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="I26">
+        <v>2.106816252331982</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2.506528426687457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="100" customHeight="1">
+      <c r="A27">
+        <v>0.1719908161172063</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0.6974813428549949</v>
+      </c>
+      <c r="D27">
+        <v>2.219551988377775</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2.601103806695111</v>
+      </c>
+      <c r="G27" t="s">
         <v>62</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="100" customHeight="1">
-      <c r="A16" t="s">
+      <c r="H27" t="s">
         <v>63</v>
       </c>
-      <c r="C16" t="s">
+      <c r="I27">
+        <v>2.047561172260569</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1.903622463840116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="100" customHeight="1">
+      <c r="A28">
+        <v>-0.1056551938192816</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>-0.4610298066381588</v>
+      </c>
+      <c r="D28">
+        <v>2.186782634579802</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>3.126298192464701</v>
+      </c>
+      <c r="G28" t="s">
         <v>64</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H28" t="s">
         <v>65</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I28">
+        <v>2.292437828399084</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>3.58732799910286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="100" customHeight="1">
+      <c r="A29">
+        <v>1.034278117657631</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>-0.3876379949234727</v>
+      </c>
+      <c r="D29">
+        <v>2.836185209906708</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2.782998662038251</v>
+      </c>
+      <c r="G29" t="s">
         <v>66</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="100" customHeight="1">
-      <c r="A17" t="s">
+      <c r="I29">
+        <v>1.801907092249077</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>3.170636656961724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="100" customHeight="1">
+      <c r="A30">
+        <v>0.3739630423446343</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0.1752633240194359</v>
+      </c>
+      <c r="D30">
+        <v>2.400771905426887</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2.927694163051554</v>
+      </c>
+      <c r="G30" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
+      <c r="H30" t="s">
         <v>69</v>
       </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="100" customHeight="1">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="100" customHeight="1">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="100" customHeight="1">
-      <c r="A20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="100" customHeight="1">
-      <c r="A21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="100" customHeight="1">
-      <c r="A22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="100" customHeight="1">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="100" customHeight="1">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="100" customHeight="1">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="100" customHeight="1">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="100" customHeight="1">
-      <c r="A27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>106</v>
+      <c r="I30">
+        <v>2.026808863082253</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2.752430839032118</v>
       </c>
     </row>
   </sheetData>

--- a/datalist/datalist.xlsx
+++ b/datalist/datalist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>inchikey</t>
   </si>
@@ -61,6 +61,24 @@
     <t>ROMol</t>
   </si>
   <si>
+    <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(C1=CC=CS1)C</t>
+  </si>
+  <si>
+    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C(=O)C</t>
+  </si>
+  <si>
     <t>KWOLFJPFCHCOCG-UHFFFAOYSA-N</t>
   </si>
   <si>
@@ -73,10 +91,10 @@
     <t>c1ccccc1C(=O)CC</t>
   </si>
   <si>
-    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C1CCCCC1C(=O)C</t>
+    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(OC)cc1)C</t>
   </si>
   <si>
     <t>BAYUSCHCCGXLAY-UHFFFAOYSA-N</t>
@@ -91,28 +109,16 @@
     <t>C(=O)(c1cc2ccccc2cc1)C</t>
   </si>
   <si>
-    <t>NTPLXRHDUXRPNE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(OC)cc1)C</t>
-  </si>
-  <si>
     <t>DWPLEOPKBWNPQV-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(c1c(OC)cccc1)C</t>
   </si>
   <si>
-    <t>WYJOVVXUZNRJQY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(C1=CC=CS1)C</t>
-  </si>
-  <si>
-    <t>CKGKXGQVRVAKEA-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(C)cccc1)c2ccccc2</t>
+    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C1C(C2=CC=CC=C2)(C3=CC=CC=C3)CCC1</t>
   </si>
   <si>
     <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
@@ -127,34 +133,40 @@
     <t>c12ccccc1CCCC2(=O)</t>
   </si>
   <si>
+    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCCCCCCCC</t>
+  </si>
+  <si>
+    <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1C#CC(=O)C</t>
+  </si>
+  <si>
+    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C#CC1=CC=CC=C1)C(C)C</t>
+  </si>
+  <si>
     <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>c12ccccc1CCC2(=O)</t>
   </si>
   <si>
-    <t>UPEUQDJSUFHFQP-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C#CC(=O)C</t>
-  </si>
-  <si>
     <t>XAJIQJSLJKBJTP-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>O=C(C#CC1=CC=CC=C1)CC</t>
   </si>
   <si>
-    <t>AOOHPXMHKBITKB-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C(C#CC1=CC=CC=C1)C(C)C</t>
-  </si>
-  <si>
-    <t>CBOPQVXWIKRPKD-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=C1C(C2=CC=CC=C2)(C3=CC=CC=C3)CCC1</t>
+    <t>IMACFCSSMIZSPP-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>ClCC(=O)c1ccccc1</t>
   </si>
   <si>
     <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
@@ -163,28 +175,52 @@
     <t>O=C(c1ccccc1)CCCl</t>
   </si>
   <si>
-    <t>QQXJNLYVPPBERR-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1C(=O)CCCCCCCCC</t>
-  </si>
-  <si>
     <t>SYBYTAAJFKOIEJ-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>C(=O)(C(C)C)C</t>
   </si>
   <si>
+    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>Brc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
+  </si>
+  <si>
+    <t>c1ccccc1/C=C/C(=O)C</t>
+  </si>
+  <si>
+    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>c1cc(Br)ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>DWFDQVMFSLLMPE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(F)cccc1)c2ccccc2</t>
+  </si>
+  <si>
     <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
   </si>
   <si>
     <t>c1ccccc1C(=O)C(C)C</t>
   </si>
   <si>
-    <t>WYECURVXVYPVAT-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>c1cc(Br)ccc1C(=O)C</t>
+    <t>VMHYWKBKHMYRNF-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(Cl)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)c2ccccc2</t>
   </si>
   <si>
     <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
@@ -193,34 +229,16 @@
     <t>COCC(=O)c1ccccc1</t>
   </si>
   <si>
-    <t>PIMNFNXBTGPCIL-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>Brc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t>BWHOZHOGCMHOBV-BQYQJAHWSA-N</t>
-  </si>
-  <si>
-    <t>c1ccccc1/C=C/C(=O)C</t>
-  </si>
-  <si>
-    <t>CSUUDNFYSFENAE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(OC)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>DWFDQVMFSLLMPE-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(F)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t>VMHYWKBKHMYRNF-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1c(Cl)cccc1)c2ccccc2</t>
+    <t>ZDPAWHACYDRYIW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(F)cc1)C</t>
+  </si>
+  <si>
+    <t>GNKZMNRKLCTJAY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>C(=O)(c1ccc(C)cc1)C</t>
   </si>
   <si>
     <t>YXWWHNCQZBVZPV-UHFFFAOYSA-N</t>
@@ -233,18 +251,6 @@
   </si>
   <si>
     <t>C(=O)(c1cc(Br)ccc1)C</t>
-  </si>
-  <si>
-    <t>GNKZMNRKLCTJAY-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(C)cc1)C</t>
-  </si>
-  <si>
-    <t>ZDPAWHACYDRYIW-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>C(=O)(c1ccc(F)cc1)C</t>
   </si>
 </sst>
 </file>
@@ -1462,6 +1468,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8534400" y="38195250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="39462075"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1759,7 +1803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1826,37 +1870,37 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.692091464996338</v>
+        <v>-0.3320608139038086</v>
       </c>
       <c r="E2">
-        <v>2.15713095664978</v>
+        <v>0.007496783044189215</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.15713095664978</v>
+        <v>0.007496783044189215</v>
       </c>
       <c r="H2">
-        <v>3.170636653900146</v>
+        <v>-1.928226470947266</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.204267981024933</v>
+        <v>-1.193686196129448</v>
       </c>
       <c r="K2">
-        <v>2.267783548438423</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.267783548438423</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>3.170636656961724</v>
+        <v>-1.986718076069497</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="100" customHeight="1">
@@ -1870,34 +1914,34 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.953418970108032</v>
+        <v>2.125741958618164</v>
       </c>
       <c r="E3">
-        <v>2.187494993209839</v>
+        <v>1.598823547363281</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.187494993209839</v>
+        <v>1.598823547363281</v>
       </c>
       <c r="H3">
-        <v>2.635399341583252</v>
+        <v>0.5418510437011719</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.13940951555557</v>
+        <v>2.044102454064183</v>
       </c>
       <c r="K3">
-        <v>2.117928070821824</v>
+        <v>1.525233356759743</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.117928070821824</v>
+        <v>1.525233356759743</v>
       </c>
       <c r="N3">
         <v>3.170636656961724</v>
@@ -1914,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.188806533813477</v>
+        <v>0.9418301582336426</v>
       </c>
       <c r="E4">
-        <v>0.7386022210121155</v>
+        <v>1.612933397293091</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7386022210121155</v>
+        <v>1.612933397293091</v>
       </c>
       <c r="H4">
-        <v>0.8447754383087158</v>
+        <v>0.3052830696105957</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1958,34 +2002,34 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.091129779815674</v>
+        <v>2.504830837249756</v>
       </c>
       <c r="E5">
-        <v>2.32585597038269</v>
+        <v>1.592243432998657</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.32585597038269</v>
+        <v>1.592243432998657</v>
       </c>
       <c r="H5">
-        <v>2.985434293746948</v>
+        <v>0.4607683420181274</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.464891741858761</v>
+        <v>2.204267981024933</v>
       </c>
       <c r="K5">
-        <v>1.808040943597903</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.808040943597903</v>
+        <v>2.267783548438423</v>
       </c>
       <c r="N5">
         <v>3.170636656961724</v>
@@ -2002,37 +2046,37 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.883924126625061</v>
+        <v>1.575124382972717</v>
       </c>
       <c r="E6">
-        <v>1.990062236785889</v>
+        <v>1.052632808685303</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.990062236785889</v>
+        <v>1.052632808685303</v>
       </c>
       <c r="H6">
-        <v>3.170636653900146</v>
+        <v>0.9428485035896301</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.292437828399084</v>
+        <v>2.13940951555557</v>
       </c>
       <c r="K6">
-        <v>2.293347004688446</v>
+        <v>2.117928070821825</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.293347004688446</v>
+        <v>2.117928070821825</v>
       </c>
       <c r="N6">
-        <v>2.752430839032118</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="100" customHeight="1">
@@ -2046,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.047953844070435</v>
+        <v>2.010393142700195</v>
       </c>
       <c r="E7">
-        <v>1.886411309242249</v>
+        <v>1.301877737045288</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.886411309242249</v>
+        <v>1.301877737045288</v>
       </c>
       <c r="H7">
-        <v>3.170636653900146</v>
+        <v>0.9605976939201355</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2090,37 +2134,37 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.870473265647888</v>
+        <v>2.177672386169434</v>
       </c>
       <c r="E8">
-        <v>1.609156012535095</v>
+        <v>0.2748175263404846</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.609156012535095</v>
+        <v>0.2748175263404846</v>
       </c>
       <c r="H8">
-        <v>3.170636653900146</v>
+        <v>0.9270801544189453</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.047561172260569</v>
+        <v>2.464891741858761</v>
       </c>
       <c r="K8">
-        <v>2.065179567503287</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.065179567503287</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="N8">
-        <v>1.903622463840116</v>
+        <v>3.170636656961724</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="100" customHeight="1">
@@ -2134,37 +2178,37 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.177231788635254</v>
+        <v>1.568750858306885</v>
       </c>
       <c r="E9">
-        <v>1.897668600082397</v>
+        <v>0.355556458234787</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.897668600082397</v>
+        <v>0.355556458234787</v>
       </c>
       <c r="H9">
-        <v>3.170636653900146</v>
+        <v>0.6636221408843994</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.044102454064183</v>
+        <v>2.292437828399084</v>
       </c>
       <c r="K9">
-        <v>1.525233356759743</v>
+        <v>2.293347004688446</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.525233356759743</v>
+        <v>2.293347004688446</v>
       </c>
       <c r="N9">
-        <v>3.170636656961724</v>
+        <v>2.752430839032118</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="100" customHeight="1">
@@ -2178,37 +2222,37 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5024252533912659</v>
+        <v>1.840876936912537</v>
       </c>
       <c r="E10">
-        <v>0.2895365655422211</v>
+        <v>1.253355026245117</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2895365655422211</v>
+        <v>1.253355026245117</v>
       </c>
       <c r="H10">
-        <v>-1.456799149513245</v>
+        <v>0.4097398817539215</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>-1.193686196129448</v>
+        <v>2.047561172260569</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="N10">
-        <v>-1.986718076069497</v>
+        <v>1.903622463840116</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="100" customHeight="1">
@@ -2219,7 +2263,7 @@
         <v>34</v>
       </c>
       <c r="C11">
-        <v>1.285444259643555</v>
+        <v>0.7880800366401672</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2228,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.612351894378662</v>
+        <v>1.519624471664429</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2237,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.24602855897637</v>
+        <v>1.979514389308825</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2246,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.808040943597903</v>
+        <v>2.269203661219363</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2263,7 +2307,7 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>2.211843729019165</v>
+        <v>0.4430550038814545</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2272,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.173029899597168</v>
+        <v>0.5229820013046265</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2281,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.328058043046766</v>
+        <v>2.24602855897637</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2290,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.332281203281557</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -2307,7 +2351,7 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1.325571417808533</v>
+        <v>2.194686889648438</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2316,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.146688222885132</v>
+        <v>1.22251558303833</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2325,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.313504990947262</v>
+        <v>1.328058043046766</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2334,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.136803750966795</v>
+        <v>1.332281203281557</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -2351,7 +2395,7 @@
         <v>40</v>
       </c>
       <c r="C14">
-        <v>-0.5772465467453003</v>
+        <v>1.464910745620728</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2360,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3380573987960815</v>
+        <v>1.042349815368652</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2369,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>-0.8580310015114321</v>
+        <v>2.464891741858761</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2378,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>-0.2104086459133792</v>
+        <v>1.808040943597903</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2395,7 +2439,7 @@
         <v>42</v>
       </c>
       <c r="C15">
-        <v>-1.242993354797363</v>
+        <v>1.260217785835266</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2404,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.2035217434167862</v>
+        <v>0.3846373558044434</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2413,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>-1.330559931327695</v>
+        <v>-0.8580310015114321</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2422,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>-0.2839537127928058</v>
+        <v>-0.2104086459133792</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -2439,7 +2483,7 @@
         <v>44</v>
       </c>
       <c r="C16">
-        <v>-2.118773460388184</v>
+        <v>0.6888009905815125</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2448,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-1.0648113489151</v>
+        <v>-0.3661419451236725</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2483,7 +2527,7 @@
         <v>46</v>
       </c>
       <c r="C17">
-        <v>1.109758019447327</v>
+        <v>1.712382197380066</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2492,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8278560638427734</v>
+        <v>1.465039730072021</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2501,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.979514389308825</v>
+        <v>2.313504990947262</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2510,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.269203661219363</v>
+        <v>2.136803750966794</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2527,7 +2571,7 @@
         <v>48</v>
       </c>
       <c r="C18">
-        <v>1.61501157283783</v>
+        <v>1.129396915435791</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2536,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.612351894378662</v>
+        <v>-0.3805019855499268</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2545,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.888460135226809</v>
+        <v>-1.330559931327695</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2554,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.065179567503287</v>
+        <v>-0.2839537127928058</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2571,7 +2615,7 @@
         <v>50</v>
       </c>
       <c r="C19">
-        <v>1.846062541007996</v>
+        <v>-1.475136995315552</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2580,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.414261341094971</v>
+        <v>-0.4570282697677612</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2589,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.464891741858761</v>
+        <v>-2.262087069087681</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2598,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.808040943597903</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -2615,7 +2659,7 @@
         <v>52</v>
       </c>
       <c r="C20">
-        <v>1.068893313407898</v>
+        <v>1.098260045051575</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2624,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5735118389129639</v>
+        <v>0.7443016767501831</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2633,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9955848522025851</v>
+        <v>1.888460135226809</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2642,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3273489621763137</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2659,7 +2703,7 @@
         <v>54</v>
       </c>
       <c r="C21">
-        <v>1.263610243797302</v>
+        <v>0.6235495805740356</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2668,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.810909271240234</v>
+        <v>1.70737099647522</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2677,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.453139524998222</v>
+        <v>0.9955848522025851</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2686,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.170636656961724</v>
+        <v>0.3273489621763137</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2703,7 +2747,7 @@
         <v>56</v>
       </c>
       <c r="C22">
-        <v>2.296055793762207</v>
+        <v>1.590010523796082</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2712,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.170636653900146</v>
+        <v>0.7520103454589844</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2721,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.065179567503287</v>
+        <v>2.612351797098031</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2730,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.170636656961724</v>
+        <v>2.331161440365284</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2747,7 +2791,7 @@
         <v>58</v>
       </c>
       <c r="C23">
-        <v>-1.208138585090637</v>
+        <v>0.7509112358093262</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2756,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>-2.219699621200562</v>
+        <v>-0.3842516243457794</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2765,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>-1.808040943597905</v>
+        <v>1.112422729872089</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2774,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>-2.194436790415199</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -2791,7 +2835,7 @@
         <v>60</v>
       </c>
       <c r="C24">
-        <v>2.456841945648193</v>
+        <v>0.3791047930717468</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2800,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7722550630569458</v>
+        <v>-0.04680287465453148</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2809,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.612351797098031</v>
+        <v>2.065179567503287</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2818,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.331161440365284</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -2835,7 +2879,7 @@
         <v>62</v>
       </c>
       <c r="C25">
-        <v>0.4933018386363983</v>
+        <v>-0.08713461458683014</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2844,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.927282333374023</v>
+        <v>-0.2390867322683334</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2853,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.112422729872089</v>
+        <v>-0.3412024452107102</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2862,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.506528426687457</v>
+        <v>-3.170636656961734</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2879,7 +2923,7 @@
         <v>64</v>
       </c>
       <c r="C26">
-        <v>0.2057007998228073</v>
+        <v>0.6921349763870239</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2888,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-2.000359058380127</v>
+        <v>0.1954636871814728</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2897,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1.453139524998222</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2906,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>-3.170636656961734</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -2923,7 +2967,7 @@
         <v>66</v>
       </c>
       <c r="C27">
-        <v>-0.08782990276813507</v>
+        <v>0.2718576490879059</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2932,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>-0.6869226098060608</v>
+        <v>-0.1109731197357178</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2941,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>-0.3412024452107102</v>
+        <v>-0.1792586026380871</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2950,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-3.170636656961734</v>
+        <v>-2.506528426687459</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -2967,7 +3011,7 @@
         <v>68</v>
       </c>
       <c r="C28">
-        <v>-0.2863985300064087</v>
+        <v>0.1866117119789124</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2976,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-2.645159244537354</v>
+        <v>-0.119258277118206</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2985,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>-0.1792586026380871</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2994,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>-2.506528426687459</v>
+        <v>-3.170636656961734</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3011,7 +3055,7 @@
         <v>70</v>
       </c>
       <c r="C29">
-        <v>3.170636653900146</v>
+        <v>-1.072522640228271</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3020,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2.500978708267212</v>
+        <v>-0.456763744354248</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3029,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>3.170636656961724</v>
+        <v>-1.808040943597905</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3038,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1.801907092249077</v>
+        <v>-2.194436790415199</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3055,7 +3099,7 @@
         <v>72</v>
       </c>
       <c r="C30">
-        <v>3.170636653900146</v>
+        <v>0.7697191834449768</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3064,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2.274213790893555</v>
+        <v>1.75802755355835</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -3073,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>3.170636656961724</v>
+        <v>2.506528426687457</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3082,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>2.292437828399084</v>
+        <v>2.106816252331982</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -3099,7 +3143,7 @@
         <v>74</v>
       </c>
       <c r="C31">
-        <v>3.170636653900146</v>
+        <v>1.230991840362549</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3108,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>3.117968320846558</v>
+        <v>2.148239612579346</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -3143,7 +3187,7 @@
         <v>76</v>
       </c>
       <c r="C32">
-        <v>3.170636653900146</v>
+        <v>0.9282386302947998</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3152,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>3.117968320846558</v>
+        <v>1.654292583465576</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3161,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>2.506528426687457</v>
+        <v>3.170636656961724</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3170,12 +3214,56 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>2.106816252331982</v>
+        <v>1.801907092249077</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="100" customHeight="1">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33">
+        <v>1.333185791969299</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1.774072885513306</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>3.170636656961724</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>2.292437828399084</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <v>0</v>
       </c>
     </row>
